--- a/teaching/traditional_assets/database/data/croatia/croatia_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/croatia/croatia_apparel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="zgse_ctks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0392</v>
+        <v>-0.0174</v>
       </c>
       <c r="G2">
-        <v>-0.02878151260504202</v>
+        <v>0.03510810810810811</v>
       </c>
       <c r="H2">
-        <v>-0.05756302521008404</v>
+        <v>0.03510810810810811</v>
       </c>
       <c r="I2">
-        <v>-0.05924369747899159</v>
+        <v>0.01175675675675675</v>
       </c>
       <c r="J2">
-        <v>-0.05924369747899159</v>
+        <v>0.01175675675675675</v>
       </c>
       <c r="K2">
-        <v>-2.6</v>
+        <v>-1.3</v>
       </c>
       <c r="L2">
-        <v>-0.1092436974789916</v>
+        <v>-0.03513513513513514</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.479</v>
+        <v>0.489</v>
       </c>
       <c r="V2">
-        <v>0.04561904761904761</v>
+        <v>0.06166456494325347</v>
       </c>
       <c r="W2">
-        <v>-0.08496732026143791</v>
+        <v>0.02150621502500866</v>
       </c>
       <c r="X2">
-        <v>0.1808459693544092</v>
+        <v>0.2141786478237416</v>
       </c>
       <c r="Y2">
-        <v>-0.2658132896158472</v>
+        <v>-0.1926724327987329</v>
       </c>
       <c r="Z2">
-        <v>0.4799064384086464</v>
+        <v>0.6190085824703462</v>
       </c>
       <c r="AA2">
-        <v>-0.02843143185530216</v>
+        <v>0.0441095499135367</v>
       </c>
       <c r="AB2">
-        <v>0.08958912477437175</v>
+        <v>0.08320149406311231</v>
       </c>
       <c r="AC2">
-        <v>-0.1180205566296739</v>
+        <v>-0.03909194414957561</v>
       </c>
       <c r="AD2">
-        <v>23.4</v>
+        <v>27.18</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.4</v>
+        <v>27.18</v>
       </c>
       <c r="AG2">
-        <v>22.921</v>
+        <v>26.691</v>
       </c>
       <c r="AH2">
-        <v>0.6902654867256637</v>
+        <v>0.7741384221019653</v>
       </c>
       <c r="AI2">
-        <v>0.4795081967213115</v>
+        <v>0.652267818574514</v>
       </c>
       <c r="AJ2">
-        <v>0.6858262768917747</v>
+        <v>0.7709482683920165</v>
       </c>
       <c r="AK2">
-        <v>0.4743486268909998</v>
+        <v>0.6481387047424784</v>
       </c>
       <c r="AL2">
-        <v>0.576</v>
+        <v>1.586</v>
       </c>
       <c r="AM2">
-        <v>0.5569999999999999</v>
+        <v>1.576</v>
       </c>
       <c r="AN2">
-        <v>-83.27402135231316</v>
+        <v>20.0590405904059</v>
       </c>
       <c r="AO2">
-        <v>-2.447916666666667</v>
+        <v>0.2742749054224464</v>
       </c>
       <c r="AP2">
-        <v>-81.56939501779358</v>
+        <v>19.69815498154982</v>
       </c>
       <c r="AQ2">
-        <v>-2.531418312387792</v>
+        <v>0.2760152284263959</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Varteks d.d. (ZGSE:VART)</t>
+          <t>Cateks d.d. (ZGSE:CTKS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0392</v>
+        <v>0.0507</v>
       </c>
       <c r="G3">
-        <v>-0.02878151260504202</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="H3">
-        <v>-0.05756302521008404</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="I3">
-        <v>-0.05924369747899159</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J3">
-        <v>-0.05924369747899159</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K3">
-        <v>-2.6</v>
+        <v>1.09</v>
       </c>
       <c r="L3">
-        <v>-0.1092436974789916</v>
+        <v>0.06855345911949685</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +748,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +757,8925 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.479</v>
+        <v>0.253</v>
       </c>
       <c r="V3">
-        <v>0.04561904761904761</v>
+        <v>0.08694158075601374</v>
       </c>
       <c r="W3">
-        <v>-0.08496732026143791</v>
+        <v>0.1371069182389937</v>
       </c>
       <c r="X3">
-        <v>0.1808459693544092</v>
+        <v>0.1111443880788148</v>
       </c>
       <c r="Y3">
-        <v>-0.2658132896158472</v>
+        <v>0.0259625301601789</v>
       </c>
       <c r="Z3">
-        <v>0.4799064384086464</v>
+        <v>1.379011274934952</v>
       </c>
       <c r="AA3">
-        <v>-0.02843143185530216</v>
+        <v>0.1040763226366002</v>
       </c>
       <c r="AB3">
-        <v>0.08958912477437175</v>
+        <v>0.08034746234685002</v>
       </c>
       <c r="AC3">
-        <v>-0.1180205566296739</v>
+        <v>0.02372886028975014</v>
       </c>
       <c r="AD3">
-        <v>23.4</v>
+        <v>2.38</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>23.4</v>
+        <v>2.38</v>
       </c>
       <c r="AG3">
-        <v>22.921</v>
+        <v>2.127</v>
       </c>
       <c r="AH3">
-        <v>0.6902654867256637</v>
+        <v>0.4499054820415879</v>
       </c>
       <c r="AI3">
-        <v>0.4795081967213115</v>
+        <v>0.2006745362563238</v>
       </c>
       <c r="AJ3">
-        <v>0.6858262768917747</v>
+        <v>0.422275163787969</v>
       </c>
       <c r="AK3">
-        <v>0.4743486268909998</v>
+        <v>0.1832514861721375</v>
       </c>
       <c r="AL3">
-        <v>0.576</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.5569999999999999</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="AN3">
-        <v>-83.27402135231316</v>
+        <v>1.307692307692307</v>
       </c>
       <c r="AO3">
-        <v>-2.447916666666667</v>
+        <v>13.95348837209302</v>
       </c>
       <c r="AP3">
-        <v>-81.56939501779358</v>
+        <v>1.168681318681319</v>
       </c>
       <c r="AQ3">
-        <v>-2.531418312387792</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Varteks d.d. (ZGSE:VART)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.08550000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.01037914691943128</v>
+      </c>
+      <c r="H4">
+        <v>0.01037914691943128</v>
+      </c>
+      <c r="I4">
+        <v>-0.03625592417061611</v>
+      </c>
+      <c r="J4">
+        <v>-0.03625592417061611</v>
+      </c>
+      <c r="K4">
+        <v>-2.39</v>
+      </c>
+      <c r="L4">
+        <v>-0.1132701421800948</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.236</v>
+      </c>
+      <c r="V4">
+        <v>0.04701195219123506</v>
+      </c>
+      <c r="W4">
+        <v>-0.09409448818897639</v>
+      </c>
+      <c r="X4">
+        <v>0.3172129075686684</v>
+      </c>
+      <c r="Y4">
+        <v>-0.4113073957576447</v>
+      </c>
+      <c r="Z4">
+        <v>0.4373691520013267</v>
+      </c>
+      <c r="AA4">
+        <v>-0.01585722280952677</v>
+      </c>
+      <c r="AB4">
+        <v>0.08605552577937459</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1019127485889014</v>
+      </c>
+      <c r="AD4">
+        <v>24.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>24.8</v>
+      </c>
+      <c r="AG4">
+        <v>24.564</v>
+      </c>
+      <c r="AH4">
+        <v>0.8316566063044937</v>
+      </c>
+      <c r="AI4">
+        <v>0.8319355920831936</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8303136830719308</v>
+      </c>
+      <c r="AK4">
+        <v>0.830594441063096</v>
+      </c>
+      <c r="AL4">
+        <v>1.5</v>
+      </c>
+      <c r="AM4">
+        <v>1.496</v>
+      </c>
+      <c r="AN4">
+        <v>-53.33333333333333</v>
+      </c>
+      <c r="AO4">
+        <v>-0.51</v>
+      </c>
+      <c r="AP4">
+        <v>-52.8258064516129</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.5113636363636364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cateks d.d. (ZGSE:CTKS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ZGSE:CTKS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.449905482041588</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>2.91</v>
+      </c>
+      <c r="H2">
+        <v>0.618515604061046</v>
+      </c>
+      <c r="I2">
+        <v>5.037</v>
+      </c>
+      <c r="J2">
+        <v>5.60261560406105</v>
+      </c>
+      <c r="K2">
+        <v>2.38</v>
+      </c>
+      <c r="L2">
+        <v>5.2371</v>
+      </c>
+      <c r="M2">
+        <v>0.08034746234685</v>
+      </c>
+      <c r="N2">
+        <v>0.06334176978657741</v>
+      </c>
+      <c r="O2">
+        <v>0.0426923976913805</v>
+      </c>
+      <c r="P2">
+        <v>0.013284</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.111144388078815</v>
+      </c>
+      <c r="T2">
+        <v>5.01906097865774</v>
+      </c>
+      <c r="U2">
+        <v>1.42634684441191</v>
+      </c>
+      <c r="V2">
+        <v>70.1624988667665</v>
+      </c>
+      <c r="W2">
+        <v>14.04980751056506</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>2.91</v>
+      </c>
+      <c r="AB2">
+        <v>0.07140225989058496</v>
+      </c>
+      <c r="AC2">
+        <v>0.0520638996236347</v>
+      </c>
+      <c r="AD2">
+        <v>0.18</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.82</v>
+      </c>
+      <c r="AH2">
+        <v>0.628</v>
+      </c>
+      <c r="AI2">
+        <v>0.6749999999999997</v>
+      </c>
+      <c r="AJ2">
+        <v>2.38</v>
+      </c>
+      <c r="AK2">
+        <v>2.38</v>
+      </c>
+      <c r="AL2">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>2.38</v>
+      </c>
+      <c r="AN2">
+        <v>0.253</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07026082962591557</v>
+      </c>
+      <c r="C2">
+        <v>5.610827169622383</v>
+      </c>
+      <c r="D2">
+        <v>5.357827169622383</v>
+      </c>
+      <c r="E2">
+        <v>-2.38</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.253</v>
+      </c>
+      <c r="H2">
+        <v>2.91</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.82</v>
+      </c>
+      <c r="K2">
+        <v>0.628</v>
+      </c>
+      <c r="L2">
+        <v>1.192</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.192</v>
+      </c>
+      <c r="O2">
+        <v>0.21456</v>
+      </c>
+      <c r="P2">
+        <v>0.9774400000000001</v>
+      </c>
+      <c r="Q2">
+        <v>1.60544</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07026082962591557</v>
+      </c>
+      <c r="T2">
+        <v>0.8537661093546677</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.18</v>
+      </c>
+      <c r="W2">
+        <v>0.013284</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07019094013258891</v>
+      </c>
+      <c r="C3">
+        <v>5.560292791260615</v>
+      </c>
+      <c r="D3">
+        <v>5.360192791260615</v>
+      </c>
+      <c r="E3">
+        <v>-2.3271</v>
+      </c>
+      <c r="F3">
+        <v>0.0529</v>
+      </c>
+      <c r="G3">
+        <v>0.253</v>
+      </c>
+      <c r="H3">
+        <v>2.91</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.82</v>
+      </c>
+      <c r="K3">
+        <v>0.628</v>
+      </c>
+      <c r="L3">
+        <v>1.192</v>
+      </c>
+      <c r="M3">
+        <v>0.00085698</v>
+      </c>
+      <c r="N3">
+        <v>1.19114302</v>
+      </c>
+      <c r="O3">
+        <v>0.2144057436</v>
+      </c>
+      <c r="P3">
+        <v>0.9767372764000002</v>
+      </c>
+      <c r="Q3">
+        <v>1.6047372764</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07076575770968577</v>
+      </c>
+      <c r="T3">
+        <v>0.8608377074321507</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.18</v>
+      </c>
+      <c r="W3">
+        <v>0.013284</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>1390.930943545941</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07012105063926227</v>
+      </c>
+      <c r="C4">
+        <v>5.509760502789954</v>
+      </c>
+      <c r="D4">
+        <v>5.362560502789954</v>
+      </c>
+      <c r="E4">
+        <v>-2.2742</v>
+      </c>
+      <c r="F4">
+        <v>0.1058</v>
+      </c>
+      <c r="G4">
+        <v>0.253</v>
+      </c>
+      <c r="H4">
+        <v>2.91</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.82</v>
+      </c>
+      <c r="K4">
+        <v>0.628</v>
+      </c>
+      <c r="L4">
+        <v>1.192</v>
+      </c>
+      <c r="M4">
+        <v>0.00171396</v>
+      </c>
+      <c r="N4">
+        <v>1.19028604</v>
+      </c>
+      <c r="O4">
+        <v>0.2142514872</v>
+      </c>
+      <c r="P4">
+        <v>0.9760345528000002</v>
+      </c>
+      <c r="Q4">
+        <v>1.6040345528</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07128099044822681</v>
+      </c>
+      <c r="T4">
+        <v>0.8680536238377458</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.18</v>
+      </c>
+      <c r="W4">
+        <v>0.013284</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>695.4654717729703</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07005116114593561</v>
+      </c>
+      <c r="C5">
+        <v>5.459230306981075</v>
+      </c>
+      <c r="D5">
+        <v>5.364930306981075</v>
+      </c>
+      <c r="E5">
+        <v>-2.2213</v>
+      </c>
+      <c r="F5">
+        <v>0.1587</v>
+      </c>
+      <c r="G5">
+        <v>0.253</v>
+      </c>
+      <c r="H5">
+        <v>2.91</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.82</v>
+      </c>
+      <c r="K5">
+        <v>0.628</v>
+      </c>
+      <c r="L5">
+        <v>1.192</v>
+      </c>
+      <c r="M5">
+        <v>0.00257094</v>
+      </c>
+      <c r="N5">
+        <v>1.18942906</v>
+      </c>
+      <c r="O5">
+        <v>0.2140972308</v>
+      </c>
+      <c r="P5">
+        <v>0.9753318292000002</v>
+      </c>
+      <c r="Q5">
+        <v>1.6033318292</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07180684654220167</v>
+      </c>
+      <c r="T5">
+        <v>0.8754183220248994</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.18</v>
+      </c>
+      <c r="W5">
+        <v>0.013284</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>463.6436478486469</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06998127165260896</v>
+      </c>
+      <c r="C6">
+        <v>5.408702206609547</v>
+      </c>
+      <c r="D6">
+        <v>5.367302206609547</v>
+      </c>
+      <c r="E6">
+        <v>-2.1684</v>
+      </c>
+      <c r="F6">
+        <v>0.2116</v>
+      </c>
+      <c r="G6">
+        <v>0.253</v>
+      </c>
+      <c r="H6">
+        <v>2.91</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.82</v>
+      </c>
+      <c r="K6">
+        <v>0.628</v>
+      </c>
+      <c r="L6">
+        <v>1.192</v>
+      </c>
+      <c r="M6">
+        <v>0.00342792</v>
+      </c>
+      <c r="N6">
+        <v>1.18857208</v>
+      </c>
+      <c r="O6">
+        <v>0.2139429744</v>
+      </c>
+      <c r="P6">
+        <v>0.9746291056000002</v>
+      </c>
+      <c r="Q6">
+        <v>1.6026291056</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07234365797146768</v>
+      </c>
+      <c r="T6">
+        <v>0.8829364514242855</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.18</v>
+      </c>
+      <c r="W6">
+        <v>0.013284</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>347.7327358864851</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06991138215928233</v>
+      </c>
+      <c r="C7">
+        <v>5.358176204455856</v>
+      </c>
+      <c r="D7">
+        <v>5.369676204455856</v>
+      </c>
+      <c r="E7">
+        <v>-2.1155</v>
+      </c>
+      <c r="F7">
+        <v>0.2645</v>
+      </c>
+      <c r="G7">
+        <v>0.253</v>
+      </c>
+      <c r="H7">
+        <v>2.91</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.82</v>
+      </c>
+      <c r="K7">
+        <v>0.628</v>
+      </c>
+      <c r="L7">
+        <v>1.192</v>
+      </c>
+      <c r="M7">
+        <v>0.0042849</v>
+      </c>
+      <c r="N7">
+        <v>1.1877151</v>
+      </c>
+      <c r="O7">
+        <v>0.213788718</v>
+      </c>
+      <c r="P7">
+        <v>0.9739263820000001</v>
+      </c>
+      <c r="Q7">
+        <v>1.601926382</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07289177069398139</v>
+      </c>
+      <c r="T7">
+        <v>0.8906128572320796</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.18</v>
+      </c>
+      <c r="W7">
+        <v>0.013284</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>278.1861887091881</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06984149266595567</v>
+      </c>
+      <c r="C8">
+        <v>5.307652303305405</v>
+      </c>
+      <c r="D8">
+        <v>5.372052303305405</v>
+      </c>
+      <c r="E8">
+        <v>-2.0626</v>
+      </c>
+      <c r="F8">
+        <v>0.3174</v>
+      </c>
+      <c r="G8">
+        <v>0.253</v>
+      </c>
+      <c r="H8">
+        <v>2.91</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.82</v>
+      </c>
+      <c r="K8">
+        <v>0.628</v>
+      </c>
+      <c r="L8">
+        <v>1.192</v>
+      </c>
+      <c r="M8">
+        <v>0.00514188</v>
+      </c>
+      <c r="N8">
+        <v>1.18685812</v>
+      </c>
+      <c r="O8">
+        <v>0.2136344616</v>
+      </c>
+      <c r="P8">
+        <v>0.9732236584000001</v>
+      </c>
+      <c r="Q8">
+        <v>1.6012236584</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07345154538931455</v>
+      </c>
+      <c r="T8">
+        <v>0.8984525908230183</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.18</v>
+      </c>
+      <c r="W8">
+        <v>0.013284</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>231.8218239243234</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06977160317262902</v>
+      </c>
+      <c r="C9">
+        <v>5.257130505948529</v>
+      </c>
+      <c r="D9">
+        <v>5.37443050594853</v>
+      </c>
+      <c r="E9">
+        <v>-2.0097</v>
+      </c>
+      <c r="F9">
+        <v>0.3703</v>
+      </c>
+      <c r="G9">
+        <v>0.253</v>
+      </c>
+      <c r="H9">
+        <v>2.91</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.82</v>
+      </c>
+      <c r="K9">
+        <v>0.628</v>
+      </c>
+      <c r="L9">
+        <v>1.192</v>
+      </c>
+      <c r="M9">
+        <v>0.00599886</v>
+      </c>
+      <c r="N9">
+        <v>1.18600114</v>
+      </c>
+      <c r="O9">
+        <v>0.2134802052</v>
+      </c>
+      <c r="P9">
+        <v>0.9725209348000001</v>
+      </c>
+      <c r="Q9">
+        <v>1.6005209348</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07402335825013874</v>
+      </c>
+      <c r="T9">
+        <v>0.9064609208352676</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.18</v>
+      </c>
+      <c r="W9">
+        <v>0.013284</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>198.7044205065629</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06970171367930239</v>
+      </c>
+      <c r="C10">
+        <v>5.206610815180511</v>
+      </c>
+      <c r="D10">
+        <v>5.376810815180511</v>
+      </c>
+      <c r="E10">
+        <v>-1.9568</v>
+      </c>
+      <c r="F10">
+        <v>0.4232</v>
+      </c>
+      <c r="G10">
+        <v>0.253</v>
+      </c>
+      <c r="H10">
+        <v>2.91</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.82</v>
+      </c>
+      <c r="K10">
+        <v>0.628</v>
+      </c>
+      <c r="L10">
+        <v>1.192</v>
+      </c>
+      <c r="M10">
+        <v>0.00685584</v>
+      </c>
+      <c r="N10">
+        <v>1.18514416</v>
+      </c>
+      <c r="O10">
+        <v>0.2133259488</v>
+      </c>
+      <c r="P10">
+        <v>0.9718182112000001</v>
+      </c>
+      <c r="Q10">
+        <v>1.5998182112</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07460760182532868</v>
+      </c>
+      <c r="T10">
+        <v>0.914643344978218</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.18</v>
+      </c>
+      <c r="W10">
+        <v>0.013284</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>173.8663679432426</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06963182418597574</v>
+      </c>
+      <c r="C11">
+        <v>5.156093233801585</v>
+      </c>
+      <c r="D11">
+        <v>5.379193233801584</v>
+      </c>
+      <c r="E11">
+        <v>-1.9039</v>
+      </c>
+      <c r="F11">
+        <v>0.4761</v>
+      </c>
+      <c r="G11">
+        <v>0.253</v>
+      </c>
+      <c r="H11">
+        <v>2.91</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.82</v>
+      </c>
+      <c r="K11">
+        <v>0.628</v>
+      </c>
+      <c r="L11">
+        <v>1.192</v>
+      </c>
+      <c r="M11">
+        <v>0.007712819999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.18428718</v>
+      </c>
+      <c r="O11">
+        <v>0.2131716924</v>
+      </c>
+      <c r="P11">
+        <v>0.9711154876000001</v>
+      </c>
+      <c r="Q11">
+        <v>1.5991154876</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07520468591865466</v>
+      </c>
+      <c r="T11">
+        <v>0.9230056026188155</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.18</v>
+      </c>
+      <c r="W11">
+        <v>0.013284</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>154.5478826162156</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06956193469264908</v>
+      </c>
+      <c r="C12">
+        <v>5.105577764616946</v>
+      </c>
+      <c r="D12">
+        <v>5.381577764616946</v>
+      </c>
+      <c r="E12">
+        <v>-1.851</v>
+      </c>
+      <c r="F12">
+        <v>0.529</v>
+      </c>
+      <c r="G12">
+        <v>0.253</v>
+      </c>
+      <c r="H12">
+        <v>2.91</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.82</v>
+      </c>
+      <c r="K12">
+        <v>0.628</v>
+      </c>
+      <c r="L12">
+        <v>1.192</v>
+      </c>
+      <c r="M12">
+        <v>0.008569800000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.1834302</v>
+      </c>
+      <c r="O12">
+        <v>0.213017436</v>
+      </c>
+      <c r="P12">
+        <v>0.9704127640000001</v>
+      </c>
+      <c r="Q12">
+        <v>1.598412764</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07581503854738787</v>
+      </c>
+      <c r="T12">
+        <v>0.9315536882069819</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.18</v>
+      </c>
+      <c r="W12">
+        <v>0.013284</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>139.093094354594</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06949204519932244</v>
+      </c>
+      <c r="C13">
+        <v>5.055064410436775</v>
+      </c>
+      <c r="D13">
+        <v>5.383964410436775</v>
+      </c>
+      <c r="E13">
+        <v>-1.7981</v>
+      </c>
+      <c r="F13">
+        <v>0.5819</v>
+      </c>
+      <c r="G13">
+        <v>0.253</v>
+      </c>
+      <c r="H13">
+        <v>2.91</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.82</v>
+      </c>
+      <c r="K13">
+        <v>0.628</v>
+      </c>
+      <c r="L13">
+        <v>1.192</v>
+      </c>
+      <c r="M13">
+        <v>0.009426779999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.18257322</v>
+      </c>
+      <c r="O13">
+        <v>0.2128631796</v>
+      </c>
+      <c r="P13">
+        <v>0.9697100404000001</v>
+      </c>
+      <c r="Q13">
+        <v>1.5977100404</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07643910696553083</v>
+      </c>
+      <c r="T13">
+        <v>0.9402938656061183</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.18</v>
+      </c>
+      <c r="W13">
+        <v>0.013284</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>126.4482675950855</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06942215570599578</v>
+      </c>
+      <c r="C14">
+        <v>5.004553174076232</v>
+      </c>
+      <c r="D14">
+        <v>5.386353174076232</v>
+      </c>
+      <c r="E14">
+        <v>-1.7452</v>
+      </c>
+      <c r="F14">
+        <v>0.6348</v>
+      </c>
+      <c r="G14">
+        <v>0.253</v>
+      </c>
+      <c r="H14">
+        <v>2.91</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.82</v>
+      </c>
+      <c r="K14">
+        <v>0.628</v>
+      </c>
+      <c r="L14">
+        <v>1.192</v>
+      </c>
+      <c r="M14">
+        <v>0.01028376</v>
+      </c>
+      <c r="N14">
+        <v>1.18171624</v>
+      </c>
+      <c r="O14">
+        <v>0.2127089232</v>
+      </c>
+      <c r="P14">
+        <v>0.9690073168000001</v>
+      </c>
+      <c r="Q14">
+        <v>1.5970073168</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07707735875681339</v>
+      </c>
+      <c r="T14">
+        <v>0.9492326834006896</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.18</v>
+      </c>
+      <c r="W14">
+        <v>0.013284</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>115.9109119621617</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06935226621266916</v>
+      </c>
+      <c r="C15">
+        <v>4.95404405835548</v>
+      </c>
+      <c r="D15">
+        <v>5.38874405835548</v>
+      </c>
+      <c r="E15">
+        <v>-1.6923</v>
+      </c>
+      <c r="F15">
+        <v>0.6877</v>
+      </c>
+      <c r="G15">
+        <v>0.253</v>
+      </c>
+      <c r="H15">
+        <v>2.91</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.82</v>
+      </c>
+      <c r="K15">
+        <v>0.628</v>
+      </c>
+      <c r="L15">
+        <v>1.192</v>
+      </c>
+      <c r="M15">
+        <v>0.01114074</v>
+      </c>
+      <c r="N15">
+        <v>1.18085926</v>
+      </c>
+      <c r="O15">
+        <v>0.2125546668</v>
+      </c>
+      <c r="P15">
+        <v>0.9683045932000001</v>
+      </c>
+      <c r="Q15">
+        <v>1.5963045932</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07773028300306799</v>
+      </c>
+      <c r="T15">
+        <v>0.958376991259504</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.18</v>
+      </c>
+      <c r="W15">
+        <v>0.013284</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>106.9946879650723</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06928237671934249</v>
+      </c>
+      <c r="C16">
+        <v>4.903537066099688</v>
+      </c>
+      <c r="D16">
+        <v>5.391137066099688</v>
+      </c>
+      <c r="E16">
+        <v>-1.6394</v>
+      </c>
+      <c r="F16">
+        <v>0.7406</v>
+      </c>
+      <c r="G16">
+        <v>0.253</v>
+      </c>
+      <c r="H16">
+        <v>2.91</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.82</v>
+      </c>
+      <c r="K16">
+        <v>0.628</v>
+      </c>
+      <c r="L16">
+        <v>1.192</v>
+      </c>
+      <c r="M16">
+        <v>0.01199772</v>
+      </c>
+      <c r="N16">
+        <v>1.18000228</v>
+      </c>
+      <c r="O16">
+        <v>0.2124004104</v>
+      </c>
+      <c r="P16">
+        <v>0.9676018696000001</v>
+      </c>
+      <c r="Q16">
+        <v>1.5956018696</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07839839153411918</v>
+      </c>
+      <c r="T16">
+        <v>0.9677339574406164</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.18</v>
+      </c>
+      <c r="W16">
+        <v>0.013284</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>99.35221025328147</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06921248722601583</v>
+      </c>
+      <c r="C17">
+        <v>4.853032200139049</v>
+      </c>
+      <c r="D17">
+        <v>5.393532200139049</v>
+      </c>
+      <c r="E17">
+        <v>-1.5865</v>
+      </c>
+      <c r="F17">
+        <v>0.7935</v>
+      </c>
+      <c r="G17">
+        <v>0.253</v>
+      </c>
+      <c r="H17">
+        <v>2.91</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.82</v>
+      </c>
+      <c r="K17">
+        <v>0.628</v>
+      </c>
+      <c r="L17">
+        <v>1.192</v>
+      </c>
+      <c r="M17">
+        <v>0.0128547</v>
+      </c>
+      <c r="N17">
+        <v>1.1791453</v>
+      </c>
+      <c r="O17">
+        <v>0.212246154</v>
+      </c>
+      <c r="P17">
+        <v>0.966899146</v>
+      </c>
+      <c r="Q17">
+        <v>1.594899146</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07908222026590099</v>
+      </c>
+      <c r="T17">
+        <v>0.9773110875318726</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.18</v>
+      </c>
+      <c r="W17">
+        <v>0.013284</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>92.72872956972938</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.0691425977326892</v>
+      </c>
+      <c r="C18">
+        <v>4.802529463308784</v>
+      </c>
+      <c r="D18">
+        <v>5.395929463308784</v>
+      </c>
+      <c r="E18">
+        <v>-1.5336</v>
+      </c>
+      <c r="F18">
+        <v>0.8464</v>
+      </c>
+      <c r="G18">
+        <v>0.253</v>
+      </c>
+      <c r="H18">
+        <v>2.91</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.82</v>
+      </c>
+      <c r="K18">
+        <v>0.628</v>
+      </c>
+      <c r="L18">
+        <v>1.192</v>
+      </c>
+      <c r="M18">
+        <v>0.01371168</v>
+      </c>
+      <c r="N18">
+        <v>1.17828832</v>
+      </c>
+      <c r="O18">
+        <v>0.2120918976000001</v>
+      </c>
+      <c r="P18">
+        <v>0.9661964224000003</v>
+      </c>
+      <c r="Q18">
+        <v>1.5941964224</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07978233063415381</v>
+      </c>
+      <c r="T18">
+        <v>0.9871162445300634</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.18</v>
+      </c>
+      <c r="W18">
+        <v>0.013284</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>86.93318397162129</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06907270823936254</v>
+      </c>
+      <c r="C19">
+        <v>4.752028858449163</v>
+      </c>
+      <c r="D19">
+        <v>5.398328858449163</v>
+      </c>
+      <c r="E19">
+        <v>-1.4807</v>
+      </c>
+      <c r="F19">
+        <v>0.8993000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.253</v>
+      </c>
+      <c r="H19">
+        <v>2.91</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.82</v>
+      </c>
+      <c r="K19">
+        <v>0.628</v>
+      </c>
+      <c r="L19">
+        <v>1.192</v>
+      </c>
+      <c r="M19">
+        <v>0.01456866</v>
+      </c>
+      <c r="N19">
+        <v>1.17743134</v>
+      </c>
+      <c r="O19">
+        <v>0.2119376412000001</v>
+      </c>
+      <c r="P19">
+        <v>0.9654936988000002</v>
+      </c>
+      <c r="Q19">
+        <v>1.5934936988</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08049931113176211</v>
+      </c>
+      <c r="T19">
+        <v>0.9971576703715842</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.18</v>
+      </c>
+      <c r="W19">
+        <v>0.013284</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>81.81946726740827</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06900281874603589</v>
+      </c>
+      <c r="C20">
+        <v>4.701530388405502</v>
+      </c>
+      <c r="D20">
+        <v>5.400730388405502</v>
+      </c>
+      <c r="E20">
+        <v>-1.4278</v>
+      </c>
+      <c r="F20">
+        <v>0.9521999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.253</v>
+      </c>
+      <c r="H20">
+        <v>2.91</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.82</v>
+      </c>
+      <c r="K20">
+        <v>0.628</v>
+      </c>
+      <c r="L20">
+        <v>1.192</v>
+      </c>
+      <c r="M20">
+        <v>0.01542564</v>
+      </c>
+      <c r="N20">
+        <v>1.17657436</v>
+      </c>
+      <c r="O20">
+        <v>0.2117833848</v>
+      </c>
+      <c r="P20">
+        <v>0.9647909752000002</v>
+      </c>
+      <c r="Q20">
+        <v>1.5927909752</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08123377895858036</v>
+      </c>
+      <c r="T20">
+        <v>1.007444009038508</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.18</v>
+      </c>
+      <c r="W20">
+        <v>0.013284</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>77.27394130810782</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06893292925270927</v>
+      </c>
+      <c r="C21">
+        <v>4.651034056028188</v>
+      </c>
+      <c r="D21">
+        <v>5.403134056028187</v>
+      </c>
+      <c r="E21">
+        <v>-1.3749</v>
+      </c>
+      <c r="F21">
+        <v>1.0051</v>
+      </c>
+      <c r="G21">
+        <v>0.253</v>
+      </c>
+      <c r="H21">
+        <v>2.91</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.82</v>
+      </c>
+      <c r="K21">
+        <v>0.628</v>
+      </c>
+      <c r="L21">
+        <v>1.192</v>
+      </c>
+      <c r="M21">
+        <v>0.01628262</v>
+      </c>
+      <c r="N21">
+        <v>1.17571738</v>
+      </c>
+      <c r="O21">
+        <v>0.2116291284</v>
+      </c>
+      <c r="P21">
+        <v>0.9640882516000002</v>
+      </c>
+      <c r="Q21">
+        <v>1.5920882516</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08198638179346822</v>
+      </c>
+      <c r="T21">
+        <v>1.01798433137622</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.18</v>
+      </c>
+      <c r="W21">
+        <v>0.013284</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>73.20689176557582</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06886303975938261</v>
+      </c>
+      <c r="C22">
+        <v>4.600539864172684</v>
+      </c>
+      <c r="D22">
+        <v>5.405539864172684</v>
+      </c>
+      <c r="E22">
+        <v>-1.322</v>
+      </c>
+      <c r="F22">
+        <v>1.058</v>
+      </c>
+      <c r="G22">
+        <v>0.253</v>
+      </c>
+      <c r="H22">
+        <v>2.91</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.82</v>
+      </c>
+      <c r="K22">
+        <v>0.628</v>
+      </c>
+      <c r="L22">
+        <v>1.192</v>
+      </c>
+      <c r="M22">
+        <v>0.0171396</v>
+      </c>
+      <c r="N22">
+        <v>1.1748604</v>
+      </c>
+      <c r="O22">
+        <v>0.211474872</v>
+      </c>
+      <c r="P22">
+        <v>0.9633855280000002</v>
+      </c>
+      <c r="Q22">
+        <v>1.591385528</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08275779969922827</v>
+      </c>
+      <c r="T22">
+        <v>1.028788161772375</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.18</v>
+      </c>
+      <c r="W22">
+        <v>0.013284</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>69.54654717729703</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06879315026605595</v>
+      </c>
+      <c r="C23">
+        <v>4.550047815699541</v>
+      </c>
+      <c r="D23">
+        <v>5.407947815699541</v>
+      </c>
+      <c r="E23">
+        <v>-1.2691</v>
+      </c>
+      <c r="F23">
+        <v>1.1109</v>
+      </c>
+      <c r="G23">
+        <v>0.253</v>
+      </c>
+      <c r="H23">
+        <v>2.91</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.82</v>
+      </c>
+      <c r="K23">
+        <v>0.628</v>
+      </c>
+      <c r="L23">
+        <v>1.192</v>
+      </c>
+      <c r="M23">
+        <v>0.01799658</v>
+      </c>
+      <c r="N23">
+        <v>1.17400342</v>
+      </c>
+      <c r="O23">
+        <v>0.2113206156</v>
+      </c>
+      <c r="P23">
+        <v>0.9626828044000002</v>
+      </c>
+      <c r="Q23">
+        <v>1.5906828044</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08354874717222273</v>
+      </c>
+      <c r="T23">
+        <v>1.039865506862103</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.18</v>
+      </c>
+      <c r="W23">
+        <v>0.013284</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>66.23480683552098</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06872326077272931</v>
+      </c>
+      <c r="C24">
+        <v>4.499557913474406</v>
+      </c>
+      <c r="D24">
+        <v>5.410357913474406</v>
+      </c>
+      <c r="E24">
+        <v>-1.2162</v>
+      </c>
+      <c r="F24">
+        <v>1.1638</v>
+      </c>
+      <c r="G24">
+        <v>0.253</v>
+      </c>
+      <c r="H24">
+        <v>2.91</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.82</v>
+      </c>
+      <c r="K24">
+        <v>0.628</v>
+      </c>
+      <c r="L24">
+        <v>1.192</v>
+      </c>
+      <c r="M24">
+        <v>0.01885356</v>
+      </c>
+      <c r="N24">
+        <v>1.17314644</v>
+      </c>
+      <c r="O24">
+        <v>0.2111663592</v>
+      </c>
+      <c r="P24">
+        <v>0.9619800808000002</v>
+      </c>
+      <c r="Q24">
+        <v>1.5899800808</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08435997534965295</v>
+      </c>
+      <c r="T24">
+        <v>1.051226886441311</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.18</v>
+      </c>
+      <c r="W24">
+        <v>0.013284</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>63.22413379754276</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06865337127940267</v>
+      </c>
+      <c r="C25">
+        <v>4.44907016036804</v>
+      </c>
+      <c r="D25">
+        <v>5.41277016036804</v>
+      </c>
+      <c r="E25">
+        <v>-1.1633</v>
+      </c>
+      <c r="F25">
+        <v>1.2167</v>
+      </c>
+      <c r="G25">
+        <v>0.253</v>
+      </c>
+      <c r="H25">
+        <v>2.91</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.82</v>
+      </c>
+      <c r="K25">
+        <v>0.628</v>
+      </c>
+      <c r="L25">
+        <v>1.192</v>
+      </c>
+      <c r="M25">
+        <v>0.01971054</v>
+      </c>
+      <c r="N25">
+        <v>1.17228946</v>
+      </c>
+      <c r="O25">
+        <v>0.2110121028</v>
+      </c>
+      <c r="P25">
+        <v>0.9612773572000002</v>
+      </c>
+      <c r="Q25">
+        <v>1.5892773572</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08519227438883463</v>
+      </c>
+      <c r="T25">
+        <v>1.062883366788811</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.18</v>
+      </c>
+      <c r="W25">
+        <v>0.013284</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>60.47525841504089</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.068583481786076</v>
+      </c>
+      <c r="C26">
+        <v>4.398584559256328</v>
+      </c>
+      <c r="D26">
+        <v>5.415184559256327</v>
+      </c>
+      <c r="E26">
+        <v>-1.1104</v>
+      </c>
+      <c r="F26">
+        <v>1.2696</v>
+      </c>
+      <c r="G26">
+        <v>0.253</v>
+      </c>
+      <c r="H26">
+        <v>2.91</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.82</v>
+      </c>
+      <c r="K26">
+        <v>0.628</v>
+      </c>
+      <c r="L26">
+        <v>1.192</v>
+      </c>
+      <c r="M26">
+        <v>0.02056752</v>
+      </c>
+      <c r="N26">
+        <v>1.17143248</v>
+      </c>
+      <c r="O26">
+        <v>0.2108578464</v>
+      </c>
+      <c r="P26">
+        <v>0.9605746336000002</v>
+      </c>
+      <c r="Q26">
+        <v>1.5885746336</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08604647603431054</v>
+      </c>
+      <c r="T26">
+        <v>1.074846596619139</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.18</v>
+      </c>
+      <c r="W26">
+        <v>0.013284</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>57.95545598108087</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06851359229274936</v>
+      </c>
+      <c r="C27">
+        <v>4.348101113020281</v>
+      </c>
+      <c r="D27">
+        <v>5.417601113020281</v>
+      </c>
+      <c r="E27">
+        <v>-1.0575</v>
+      </c>
+      <c r="F27">
+        <v>1.3225</v>
+      </c>
+      <c r="G27">
+        <v>0.253</v>
+      </c>
+      <c r="H27">
+        <v>2.91</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.82</v>
+      </c>
+      <c r="K27">
+        <v>0.628</v>
+      </c>
+      <c r="L27">
+        <v>1.192</v>
+      </c>
+      <c r="M27">
+        <v>0.0214245</v>
+      </c>
+      <c r="N27">
+        <v>1.1705755</v>
+      </c>
+      <c r="O27">
+        <v>0.21070359</v>
+      </c>
+      <c r="P27">
+        <v>0.9598719100000002</v>
+      </c>
+      <c r="Q27">
+        <v>1.58787191</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08692345639033248</v>
+      </c>
+      <c r="T27">
+        <v>1.08712884591161</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.18</v>
+      </c>
+      <c r="W27">
+        <v>0.013284</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>55.63723774183763</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0684437027994227</v>
+      </c>
+      <c r="C28">
+        <v>4.297619824546064</v>
+      </c>
+      <c r="D28">
+        <v>5.420019824546063</v>
+      </c>
+      <c r="E28">
+        <v>-1.0046</v>
+      </c>
+      <c r="F28">
+        <v>1.3754</v>
+      </c>
+      <c r="G28">
+        <v>0.253</v>
+      </c>
+      <c r="H28">
+        <v>2.91</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.82</v>
+      </c>
+      <c r="K28">
+        <v>0.628</v>
+      </c>
+      <c r="L28">
+        <v>1.192</v>
+      </c>
+      <c r="M28">
+        <v>0.02228148</v>
+      </c>
+      <c r="N28">
+        <v>1.16971852</v>
+      </c>
+      <c r="O28">
+        <v>0.2105493336</v>
+      </c>
+      <c r="P28">
+        <v>0.9591691864000002</v>
+      </c>
+      <c r="Q28">
+        <v>1.5871691864</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0878241389181388</v>
+      </c>
+      <c r="T28">
+        <v>1.099743047887661</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.18</v>
+      </c>
+      <c r="W28">
+        <v>0.013284</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>53.49734398253618</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06837381330609606</v>
+      </c>
+      <c r="C29">
+        <v>4.247140696724991</v>
+      </c>
+      <c r="D29">
+        <v>5.422440696724991</v>
+      </c>
+      <c r="E29">
+        <v>-0.9516999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1.4283</v>
+      </c>
+      <c r="G29">
+        <v>0.253</v>
+      </c>
+      <c r="H29">
+        <v>2.91</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.82</v>
+      </c>
+      <c r="K29">
+        <v>0.628</v>
+      </c>
+      <c r="L29">
+        <v>1.192</v>
+      </c>
+      <c r="M29">
+        <v>0.02313846</v>
+      </c>
+      <c r="N29">
+        <v>1.16886154</v>
+      </c>
+      <c r="O29">
+        <v>0.2103950772</v>
+      </c>
+      <c r="P29">
+        <v>0.9584664628000001</v>
+      </c>
+      <c r="Q29">
+        <v>1.5864664628</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08874949767958365</v>
+      </c>
+      <c r="T29">
+        <v>1.112702844438398</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.18</v>
+      </c>
+      <c r="W29">
+        <v>0.013284</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>51.51596087207188</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06830392381276942</v>
+      </c>
+      <c r="C30">
+        <v>4.196663732453549</v>
+      </c>
+      <c r="D30">
+        <v>5.42486373245355</v>
+      </c>
+      <c r="E30">
+        <v>-0.8987999999999998</v>
+      </c>
+      <c r="F30">
+        <v>1.4812</v>
+      </c>
+      <c r="G30">
+        <v>0.253</v>
+      </c>
+      <c r="H30">
+        <v>2.91</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.82</v>
+      </c>
+      <c r="K30">
+        <v>0.628</v>
+      </c>
+      <c r="L30">
+        <v>1.192</v>
+      </c>
+      <c r="M30">
+        <v>0.02399544</v>
+      </c>
+      <c r="N30">
+        <v>1.16800456</v>
+      </c>
+      <c r="O30">
+        <v>0.2102408208</v>
+      </c>
+      <c r="P30">
+        <v>0.9577637392000001</v>
+      </c>
+      <c r="Q30">
+        <v>1.5857637392</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08970056085106864</v>
+      </c>
+      <c r="T30">
+        <v>1.126022635337767</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.18</v>
+      </c>
+      <c r="W30">
+        <v>0.013284</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>49.67610512664073</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06823403431944278</v>
+      </c>
+      <c r="C31">
+        <v>4.146188934633404</v>
+      </c>
+      <c r="D31">
+        <v>5.427288934633403</v>
+      </c>
+      <c r="E31">
+        <v>-0.8459000000000001</v>
+      </c>
+      <c r="F31">
+        <v>1.5341</v>
+      </c>
+      <c r="G31">
+        <v>0.253</v>
+      </c>
+      <c r="H31">
+        <v>2.91</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.82</v>
+      </c>
+      <c r="K31">
+        <v>0.628</v>
+      </c>
+      <c r="L31">
+        <v>1.192</v>
+      </c>
+      <c r="M31">
+        <v>0.02485242</v>
+      </c>
+      <c r="N31">
+        <v>1.16714758</v>
+      </c>
+      <c r="O31">
+        <v>0.2100865644</v>
+      </c>
+      <c r="P31">
+        <v>0.9570610156000001</v>
+      </c>
+      <c r="Q31">
+        <v>1.5850610156</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09067841453442645</v>
+      </c>
+      <c r="T31">
+        <v>1.139717631614583</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.18</v>
+      </c>
+      <c r="W31">
+        <v>0.013284</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>47.96313598434278</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06816414482611612</v>
+      </c>
+      <c r="C32">
+        <v>4.095716306171411</v>
+      </c>
+      <c r="D32">
+        <v>5.429716306171411</v>
+      </c>
+      <c r="E32">
+        <v>-0.7929999999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.587</v>
+      </c>
+      <c r="G32">
+        <v>0.253</v>
+      </c>
+      <c r="H32">
+        <v>2.91</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.82</v>
+      </c>
+      <c r="K32">
+        <v>0.628</v>
+      </c>
+      <c r="L32">
+        <v>1.192</v>
+      </c>
+      <c r="M32">
+        <v>0.0257094</v>
+      </c>
+      <c r="N32">
+        <v>1.1662906</v>
+      </c>
+      <c r="O32">
+        <v>0.209932308</v>
+      </c>
+      <c r="P32">
+        <v>0.9563582920000002</v>
+      </c>
+      <c r="Q32">
+        <v>1.584358292</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09168420689445161</v>
+      </c>
+      <c r="T32">
+        <v>1.153803913499308</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.18</v>
+      </c>
+      <c r="W32">
+        <v>0.013284</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>46.36436478486469</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06809425533278948</v>
+      </c>
+      <c r="C33">
+        <v>4.045245849979627</v>
+      </c>
+      <c r="D33">
+        <v>5.432145849979626</v>
+      </c>
+      <c r="E33">
+        <v>-0.7401</v>
+      </c>
+      <c r="F33">
+        <v>1.6399</v>
+      </c>
+      <c r="G33">
+        <v>0.253</v>
+      </c>
+      <c r="H33">
+        <v>2.91</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.82</v>
+      </c>
+      <c r="K33">
+        <v>0.628</v>
+      </c>
+      <c r="L33">
+        <v>1.192</v>
+      </c>
+      <c r="M33">
+        <v>0.02656638</v>
+      </c>
+      <c r="N33">
+        <v>1.16543362</v>
+      </c>
+      <c r="O33">
+        <v>0.2097780516</v>
+      </c>
+      <c r="P33">
+        <v>0.9556555684000001</v>
+      </c>
+      <c r="Q33">
+        <v>1.5836555684</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09271915265621664</v>
+      </c>
+      <c r="T33">
+        <v>1.168298493409677</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.18</v>
+      </c>
+      <c r="W33">
+        <v>0.013284</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>44.86874011438518</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06802436583946282</v>
+      </c>
+      <c r="C34">
+        <v>3.994777568975326</v>
+      </c>
+      <c r="D34">
+        <v>5.434577568975326</v>
+      </c>
+      <c r="E34">
+        <v>-0.6871999999999998</v>
+      </c>
+      <c r="F34">
+        <v>1.6928</v>
+      </c>
+      <c r="G34">
+        <v>0.253</v>
+      </c>
+      <c r="H34">
+        <v>2.91</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.82</v>
+      </c>
+      <c r="K34">
+        <v>0.628</v>
+      </c>
+      <c r="L34">
+        <v>1.192</v>
+      </c>
+      <c r="M34">
+        <v>0.02742336</v>
+      </c>
+      <c r="N34">
+        <v>1.16457664</v>
+      </c>
+      <c r="O34">
+        <v>0.2096237952</v>
+      </c>
+      <c r="P34">
+        <v>0.9549528448000002</v>
+      </c>
+      <c r="Q34">
+        <v>1.5829528448</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09378453799921005</v>
+      </c>
+      <c r="T34">
+        <v>1.183219384493881</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.18</v>
+      </c>
+      <c r="W34">
+        <v>0.013284</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>43.46659198581064</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06795447634613619</v>
+      </c>
+      <c r="C35">
+        <v>3.944311466081005</v>
+      </c>
+      <c r="D35">
+        <v>5.437011466081005</v>
+      </c>
+      <c r="E35">
+        <v>-0.6342999999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.7457</v>
+      </c>
+      <c r="G35">
+        <v>0.253</v>
+      </c>
+      <c r="H35">
+        <v>2.91</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.82</v>
+      </c>
+      <c r="K35">
+        <v>0.628</v>
+      </c>
+      <c r="L35">
+        <v>1.192</v>
+      </c>
+      <c r="M35">
+        <v>0.02828034</v>
+      </c>
+      <c r="N35">
+        <v>1.16371966</v>
+      </c>
+      <c r="O35">
+        <v>0.2094695388</v>
+      </c>
+      <c r="P35">
+        <v>0.9542501212000001</v>
+      </c>
+      <c r="Q35">
+        <v>1.5822501212</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09488172588975551</v>
+      </c>
+      <c r="T35">
+        <v>1.198585675311941</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.18</v>
+      </c>
+      <c r="W35">
+        <v>0.013284</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>42.14942253169517</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06788458685280954</v>
+      </c>
+      <c r="C36">
+        <v>3.893847544224405</v>
+      </c>
+      <c r="D36">
+        <v>5.439447544224405</v>
+      </c>
+      <c r="E36">
+        <v>-0.5813999999999997</v>
+      </c>
+      <c r="F36">
+        <v>1.7986</v>
+      </c>
+      <c r="G36">
+        <v>0.253</v>
+      </c>
+      <c r="H36">
+        <v>2.91</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.82</v>
+      </c>
+      <c r="K36">
+        <v>0.628</v>
+      </c>
+      <c r="L36">
+        <v>1.192</v>
+      </c>
+      <c r="M36">
+        <v>0.02913732</v>
+      </c>
+      <c r="N36">
+        <v>1.16286268</v>
+      </c>
+      <c r="O36">
+        <v>0.2093152824</v>
+      </c>
+      <c r="P36">
+        <v>0.9535473976000002</v>
+      </c>
+      <c r="Q36">
+        <v>1.5815473976</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09601216189819628</v>
+      </c>
+      <c r="T36">
+        <v>1.214417611306306</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.18</v>
+      </c>
+      <c r="W36">
+        <v>0.013284</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>40.90973363370414</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06781469735948288</v>
+      </c>
+      <c r="C37">
+        <v>3.843385806338511</v>
+      </c>
+      <c r="D37">
+        <v>5.441885806338511</v>
+      </c>
+      <c r="E37">
+        <v>-0.5284999999999997</v>
+      </c>
+      <c r="F37">
+        <v>1.8515</v>
+      </c>
+      <c r="G37">
+        <v>0.253</v>
+      </c>
+      <c r="H37">
+        <v>2.91</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.82</v>
+      </c>
+      <c r="K37">
+        <v>0.628</v>
+      </c>
+      <c r="L37">
+        <v>1.192</v>
+      </c>
+      <c r="M37">
+        <v>0.0299943</v>
+      </c>
+      <c r="N37">
+        <v>1.1620057</v>
+      </c>
+      <c r="O37">
+        <v>0.209161026</v>
+      </c>
+      <c r="P37">
+        <v>0.9528446740000001</v>
+      </c>
+      <c r="Q37">
+        <v>1.580844674</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.0971773805530506</v>
+      </c>
+      <c r="T37">
+        <v>1.230736683792806</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.18</v>
+      </c>
+      <c r="W37">
+        <v>0.013284</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>39.74088410131259</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06774480786615625</v>
+      </c>
+      <c r="C38">
+        <v>3.792926255361568</v>
+      </c>
+      <c r="D38">
+        <v>5.444326255361568</v>
+      </c>
+      <c r="E38">
+        <v>-0.4756</v>
+      </c>
+      <c r="F38">
+        <v>1.9044</v>
+      </c>
+      <c r="G38">
+        <v>0.253</v>
+      </c>
+      <c r="H38">
+        <v>2.91</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.82</v>
+      </c>
+      <c r="K38">
+        <v>0.628</v>
+      </c>
+      <c r="L38">
+        <v>1.192</v>
+      </c>
+      <c r="M38">
+        <v>0.03085127999999999</v>
+      </c>
+      <c r="N38">
+        <v>1.16114872</v>
+      </c>
+      <c r="O38">
+        <v>0.2090067696</v>
+      </c>
+      <c r="P38">
+        <v>0.9521419504000002</v>
+      </c>
+      <c r="Q38">
+        <v>1.5801419504</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09837901229086912</v>
+      </c>
+      <c r="T38">
+        <v>1.247565727294508</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.18</v>
+      </c>
+      <c r="W38">
+        <v>0.013284</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>38.63697065405391</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06767491837282959</v>
+      </c>
+      <c r="C39">
+        <v>3.742468894237098</v>
+      </c>
+      <c r="D39">
+        <v>5.446768894237098</v>
+      </c>
+      <c r="E39">
+        <v>-0.4226999999999999</v>
+      </c>
+      <c r="F39">
+        <v>1.9573</v>
+      </c>
+      <c r="G39">
+        <v>0.253</v>
+      </c>
+      <c r="H39">
+        <v>2.91</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.82</v>
+      </c>
+      <c r="K39">
+        <v>0.628</v>
+      </c>
+      <c r="L39">
+        <v>1.192</v>
+      </c>
+      <c r="M39">
+        <v>0.03170826</v>
+      </c>
+      <c r="N39">
+        <v>1.16029174</v>
+      </c>
+      <c r="O39">
+        <v>0.2088525132</v>
+      </c>
+      <c r="P39">
+        <v>0.9514392268000001</v>
+      </c>
+      <c r="Q39">
+        <v>1.5794392268</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09961879106798346</v>
+      </c>
+      <c r="T39">
+        <v>1.264929026145471</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.18</v>
+      </c>
+      <c r="W39">
+        <v>0.013284</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>37.59272820394434</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06760502887950294</v>
+      </c>
+      <c r="C40">
+        <v>3.692013725913907</v>
+      </c>
+      <c r="D40">
+        <v>5.449213725913907</v>
+      </c>
+      <c r="E40">
+        <v>-0.3697999999999997</v>
+      </c>
+      <c r="F40">
+        <v>2.0102</v>
+      </c>
+      <c r="G40">
+        <v>0.253</v>
+      </c>
+      <c r="H40">
+        <v>2.91</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.82</v>
+      </c>
+      <c r="K40">
+        <v>0.628</v>
+      </c>
+      <c r="L40">
+        <v>1.192</v>
+      </c>
+      <c r="M40">
+        <v>0.03256524</v>
+      </c>
+      <c r="N40">
+        <v>1.15943476</v>
+      </c>
+      <c r="O40">
+        <v>0.2086982568</v>
+      </c>
+      <c r="P40">
+        <v>0.9507365032000001</v>
+      </c>
+      <c r="Q40">
+        <v>1.5787365032</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1008985627088757</v>
+      </c>
+      <c r="T40">
+        <v>1.282852431410981</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.18</v>
+      </c>
+      <c r="W40">
+        <v>0.013284</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>36.60344588278791</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06753513938617629</v>
+      </c>
+      <c r="C41">
+        <v>3.641560753346097</v>
+      </c>
+      <c r="D41">
+        <v>5.451660753346097</v>
+      </c>
+      <c r="E41">
+        <v>-0.3169</v>
+      </c>
+      <c r="F41">
+        <v>2.0631</v>
+      </c>
+      <c r="G41">
+        <v>0.253</v>
+      </c>
+      <c r="H41">
+        <v>2.91</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.82</v>
+      </c>
+      <c r="K41">
+        <v>0.628</v>
+      </c>
+      <c r="L41">
+        <v>1.192</v>
+      </c>
+      <c r="M41">
+        <v>0.03342222</v>
+      </c>
+      <c r="N41">
+        <v>1.15857778</v>
+      </c>
+      <c r="O41">
+        <v>0.2085440004</v>
+      </c>
+      <c r="P41">
+        <v>0.9500337796000001</v>
+      </c>
+      <c r="Q41">
+        <v>1.5780337796</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1022202940756988</v>
+      </c>
+      <c r="T41">
+        <v>1.301363489308148</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.18</v>
+      </c>
+      <c r="W41">
+        <v>0.013284</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>35.66489598835745</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06746524989284965</v>
+      </c>
+      <c r="C42">
+        <v>3.591109979493079</v>
+      </c>
+      <c r="D42">
+        <v>5.454109979493079</v>
+      </c>
+      <c r="E42">
+        <v>-0.2639999999999998</v>
+      </c>
+      <c r="F42">
+        <v>2.116</v>
+      </c>
+      <c r="G42">
+        <v>0.253</v>
+      </c>
+      <c r="H42">
+        <v>2.91</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.82</v>
+      </c>
+      <c r="K42">
+        <v>0.628</v>
+      </c>
+      <c r="L42">
+        <v>1.192</v>
+      </c>
+      <c r="M42">
+        <v>0.0342792</v>
+      </c>
+      <c r="N42">
+        <v>1.1577208</v>
+      </c>
+      <c r="O42">
+        <v>0.208389744</v>
+      </c>
+      <c r="P42">
+        <v>0.9493310560000001</v>
+      </c>
+      <c r="Q42">
+        <v>1.577331056</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1035860831547494</v>
+      </c>
+      <c r="T42">
+        <v>1.320491582468553</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.18</v>
+      </c>
+      <c r="W42">
+        <v>0.013284</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>34.77327358864851</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06739536039952299</v>
+      </c>
+      <c r="C43">
+        <v>3.540661407319585</v>
+      </c>
+      <c r="D43">
+        <v>5.456561407319585</v>
+      </c>
+      <c r="E43">
+        <v>-0.2110999999999996</v>
+      </c>
+      <c r="F43">
+        <v>2.1689</v>
+      </c>
+      <c r="G43">
+        <v>0.253</v>
+      </c>
+      <c r="H43">
+        <v>2.91</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.82</v>
+      </c>
+      <c r="K43">
+        <v>0.628</v>
+      </c>
+      <c r="L43">
+        <v>1.192</v>
+      </c>
+      <c r="M43">
+        <v>0.03513618</v>
+      </c>
+      <c r="N43">
+        <v>1.15686382</v>
+      </c>
+      <c r="O43">
+        <v>0.2082354876</v>
+      </c>
+      <c r="P43">
+        <v>0.9486283324000001</v>
+      </c>
+      <c r="Q43">
+        <v>1.5766283324</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.104998170168683</v>
+      </c>
+      <c r="T43">
+        <v>1.340268085566599</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.18</v>
+      </c>
+      <c r="W43">
+        <v>0.013284</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>33.92514496453513</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06732547090619637</v>
+      </c>
+      <c r="C44">
+        <v>3.490215039795676</v>
+      </c>
+      <c r="D44">
+        <v>5.459015039795676</v>
+      </c>
+      <c r="E44">
+        <v>-0.1581999999999999</v>
+      </c>
+      <c r="F44">
+        <v>2.2218</v>
+      </c>
+      <c r="G44">
+        <v>0.253</v>
+      </c>
+      <c r="H44">
+        <v>2.91</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.82</v>
+      </c>
+      <c r="K44">
+        <v>0.628</v>
+      </c>
+      <c r="L44">
+        <v>1.192</v>
+      </c>
+      <c r="M44">
+        <v>0.03599316</v>
+      </c>
+      <c r="N44">
+        <v>1.15600684</v>
+      </c>
+      <c r="O44">
+        <v>0.2080812312</v>
+      </c>
+      <c r="P44">
+        <v>0.9479256088000001</v>
+      </c>
+      <c r="Q44">
+        <v>1.5759256088</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1064589498382696</v>
+      </c>
+      <c r="T44">
+        <v>1.360726537047336</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.18</v>
+      </c>
+      <c r="W44">
+        <v>0.013284</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>33.11740341776049</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06725558141286971</v>
+      </c>
+      <c r="C45">
+        <v>3.439770879896766</v>
+      </c>
+      <c r="D45">
+        <v>5.461470879896766</v>
+      </c>
+      <c r="E45">
+        <v>-0.1052999999999997</v>
+      </c>
+      <c r="F45">
+        <v>2.2747</v>
+      </c>
+      <c r="G45">
+        <v>0.253</v>
+      </c>
+      <c r="H45">
+        <v>2.91</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.82</v>
+      </c>
+      <c r="K45">
+        <v>0.628</v>
+      </c>
+      <c r="L45">
+        <v>1.192</v>
+      </c>
+      <c r="M45">
+        <v>0.03685014</v>
+      </c>
+      <c r="N45">
+        <v>1.15514986</v>
+      </c>
+      <c r="O45">
+        <v>0.2079269748</v>
+      </c>
+      <c r="P45">
+        <v>0.9472228852000001</v>
+      </c>
+      <c r="Q45">
+        <v>1.5752228852</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1079709849348591</v>
+      </c>
+      <c r="T45">
+        <v>1.381902828930906</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.18</v>
+      </c>
+      <c r="W45">
+        <v>0.013284</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>32.34723124525443</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06718569191954306</v>
+      </c>
+      <c r="C46">
+        <v>3.389328930603616</v>
+      </c>
+      <c r="D46">
+        <v>5.463928930603616</v>
+      </c>
+      <c r="E46">
+        <v>-0.0524</v>
+      </c>
+      <c r="F46">
+        <v>2.3276</v>
+      </c>
+      <c r="G46">
+        <v>0.253</v>
+      </c>
+      <c r="H46">
+        <v>2.91</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.82</v>
+      </c>
+      <c r="K46">
+        <v>0.628</v>
+      </c>
+      <c r="L46">
+        <v>1.192</v>
+      </c>
+      <c r="M46">
+        <v>0.03770712</v>
+      </c>
+      <c r="N46">
+        <v>1.15429288</v>
+      </c>
+      <c r="O46">
+        <v>0.2077727184</v>
+      </c>
+      <c r="P46">
+        <v>0.9465201616000001</v>
+      </c>
+      <c r="Q46">
+        <v>1.5745201616</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1095370212848983</v>
+      </c>
+      <c r="T46">
+        <v>1.403835416953175</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.18</v>
+      </c>
+      <c r="W46">
+        <v>0.013284</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>31.61206689877138</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06711580242621641</v>
+      </c>
+      <c r="C47">
+        <v>3.338889194902361</v>
+      </c>
+      <c r="D47">
+        <v>5.466389194902361</v>
+      </c>
+      <c r="E47">
+        <v>0.000500000000000167</v>
+      </c>
+      <c r="F47">
+        <v>2.3805</v>
+      </c>
+      <c r="G47">
+        <v>0.253</v>
+      </c>
+      <c r="H47">
+        <v>2.91</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.82</v>
+      </c>
+      <c r="K47">
+        <v>0.628</v>
+      </c>
+      <c r="L47">
+        <v>1.192</v>
+      </c>
+      <c r="M47">
+        <v>0.0385641</v>
+      </c>
+      <c r="N47">
+        <v>1.1534359</v>
+      </c>
+      <c r="O47">
+        <v>0.207618462</v>
+      </c>
+      <c r="P47">
+        <v>0.9458174380000001</v>
+      </c>
+      <c r="Q47">
+        <v>1.573817438</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1111600044113026</v>
+      </c>
+      <c r="T47">
+        <v>1.426565553630799</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.18</v>
+      </c>
+      <c r="W47">
+        <v>0.013284</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>30.90957652324312</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06704591293288976</v>
+      </c>
+      <c r="C48">
+        <v>3.288451675784517</v>
+      </c>
+      <c r="D48">
+        <v>5.468851675784517</v>
+      </c>
+      <c r="E48">
+        <v>0.05340000000000034</v>
+      </c>
+      <c r="F48">
+        <v>2.4334</v>
+      </c>
+      <c r="G48">
+        <v>0.253</v>
+      </c>
+      <c r="H48">
+        <v>2.91</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.82</v>
+      </c>
+      <c r="K48">
+        <v>0.628</v>
+      </c>
+      <c r="L48">
+        <v>1.192</v>
+      </c>
+      <c r="M48">
+        <v>0.03942108</v>
+      </c>
+      <c r="N48">
+        <v>1.15257892</v>
+      </c>
+      <c r="O48">
+        <v>0.2074642056</v>
+      </c>
+      <c r="P48">
+        <v>0.9451147144000001</v>
+      </c>
+      <c r="Q48">
+        <v>1.5731147144</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1128430980238699</v>
+      </c>
+      <c r="T48">
+        <v>1.45013754722241</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.18</v>
+      </c>
+      <c r="W48">
+        <v>0.013284</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>30.23762920752044</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06697602343956312</v>
+      </c>
+      <c r="C49">
+        <v>3.23801637624699</v>
+      </c>
+      <c r="D49">
+        <v>5.47131637624699</v>
+      </c>
+      <c r="E49">
+        <v>0.1063000000000001</v>
+      </c>
+      <c r="F49">
+        <v>2.4863</v>
+      </c>
+      <c r="G49">
+        <v>0.253</v>
+      </c>
+      <c r="H49">
+        <v>2.91</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.82</v>
+      </c>
+      <c r="K49">
+        <v>0.628</v>
+      </c>
+      <c r="L49">
+        <v>1.192</v>
+      </c>
+      <c r="M49">
+        <v>0.04027806</v>
+      </c>
+      <c r="N49">
+        <v>1.15172194</v>
+      </c>
+      <c r="O49">
+        <v>0.2073099492</v>
+      </c>
+      <c r="P49">
+        <v>0.9444119908000003</v>
+      </c>
+      <c r="Q49">
+        <v>1.5724119908</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1145897046029493</v>
+      </c>
+      <c r="T49">
+        <v>1.474599050006156</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.18</v>
+      </c>
+      <c r="W49">
+        <v>0.013284</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>29.59427539459449</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06690613394623646</v>
+      </c>
+      <c r="C50">
+        <v>3.187583299292093</v>
+      </c>
+      <c r="D50">
+        <v>5.473783299292093</v>
+      </c>
+      <c r="E50">
+        <v>0.1592000000000002</v>
+      </c>
+      <c r="F50">
+        <v>2.5392</v>
+      </c>
+      <c r="G50">
+        <v>0.253</v>
+      </c>
+      <c r="H50">
+        <v>2.91</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.82</v>
+      </c>
+      <c r="K50">
+        <v>0.628</v>
+      </c>
+      <c r="L50">
+        <v>1.192</v>
+      </c>
+      <c r="M50">
+        <v>0.04113504</v>
+      </c>
+      <c r="N50">
+        <v>1.15086496</v>
+      </c>
+      <c r="O50">
+        <v>0.2071556928</v>
+      </c>
+      <c r="P50">
+        <v>0.9437092672000003</v>
+      </c>
+      <c r="Q50">
+        <v>1.5717092672</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.116403488358147</v>
+      </c>
+      <c r="T50">
+        <v>1.500001379820047</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.18</v>
+      </c>
+      <c r="W50">
+        <v>0.013284</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>28.97772799054043</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06683624445290981</v>
+      </c>
+      <c r="C51">
+        <v>3.137152447927556</v>
+      </c>
+      <c r="D51">
+        <v>5.476252447927556</v>
+      </c>
+      <c r="E51">
+        <v>0.2121</v>
+      </c>
+      <c r="F51">
+        <v>2.5921</v>
+      </c>
+      <c r="G51">
+        <v>0.253</v>
+      </c>
+      <c r="H51">
+        <v>2.91</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.82</v>
+      </c>
+      <c r="K51">
+        <v>0.628</v>
+      </c>
+      <c r="L51">
+        <v>1.192</v>
+      </c>
+      <c r="M51">
+        <v>0.04199202</v>
+      </c>
+      <c r="N51">
+        <v>1.15000798</v>
+      </c>
+      <c r="O51">
+        <v>0.2070014364</v>
+      </c>
+      <c r="P51">
+        <v>0.9430065436000002</v>
+      </c>
+      <c r="Q51">
+        <v>1.5710065436</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1182884008880584</v>
+      </c>
+      <c r="T51">
+        <v>1.526399879430561</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.18</v>
+      </c>
+      <c r="W51">
+        <v>0.013284</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>28.38634578665185</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06676635495958316</v>
+      </c>
+      <c r="C52">
+        <v>3.086723825166536</v>
+      </c>
+      <c r="D52">
+        <v>5.478723825166536</v>
+      </c>
+      <c r="E52">
+        <v>0.2650000000000001</v>
+      </c>
+      <c r="F52">
+        <v>2.645</v>
+      </c>
+      <c r="G52">
+        <v>0.253</v>
+      </c>
+      <c r="H52">
+        <v>2.91</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.82</v>
+      </c>
+      <c r="K52">
+        <v>0.628</v>
+      </c>
+      <c r="L52">
+        <v>1.192</v>
+      </c>
+      <c r="M52">
+        <v>0.042849</v>
+      </c>
+      <c r="N52">
+        <v>1.149151</v>
+      </c>
+      <c r="O52">
+        <v>0.20684718</v>
+      </c>
+      <c r="P52">
+        <v>0.9423038200000002</v>
+      </c>
+      <c r="Q52">
+        <v>1.57030382</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1202487099191663</v>
+      </c>
+      <c r="T52">
+        <v>1.553854319025495</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.18</v>
+      </c>
+      <c r="W52">
+        <v>0.013284</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>27.81861887091882</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06669646546625652</v>
+      </c>
+      <c r="C53">
+        <v>3.036297434027637</v>
+      </c>
+      <c r="D53">
+        <v>5.481197434027637</v>
+      </c>
+      <c r="E53">
+        <v>0.3179000000000003</v>
+      </c>
+      <c r="F53">
+        <v>2.6979</v>
+      </c>
+      <c r="G53">
+        <v>0.253</v>
+      </c>
+      <c r="H53">
+        <v>2.91</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.82</v>
+      </c>
+      <c r="K53">
+        <v>0.628</v>
+      </c>
+      <c r="L53">
+        <v>1.192</v>
+      </c>
+      <c r="M53">
+        <v>0.04370598</v>
+      </c>
+      <c r="N53">
+        <v>1.14829402</v>
+      </c>
+      <c r="O53">
+        <v>0.2066929236000001</v>
+      </c>
+      <c r="P53">
+        <v>0.9416010964000002</v>
+      </c>
+      <c r="Q53">
+        <v>1.5696010964</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1222890315637888</v>
+      </c>
+      <c r="T53">
+        <v>1.582429347991652</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.18</v>
+      </c>
+      <c r="W53">
+        <v>0.013284</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>27.27315575580276</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06662657597292987</v>
+      </c>
+      <c r="C54">
+        <v>2.985873277534911</v>
+      </c>
+      <c r="D54">
+        <v>5.483673277534911</v>
+      </c>
+      <c r="E54">
+        <v>0.3708</v>
+      </c>
+      <c r="F54">
+        <v>2.7508</v>
+      </c>
+      <c r="G54">
+        <v>0.253</v>
+      </c>
+      <c r="H54">
+        <v>2.91</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.82</v>
+      </c>
+      <c r="K54">
+        <v>0.628</v>
+      </c>
+      <c r="L54">
+        <v>1.192</v>
+      </c>
+      <c r="M54">
+        <v>0.04456296</v>
+      </c>
+      <c r="N54">
+        <v>1.14743704</v>
+      </c>
+      <c r="O54">
+        <v>0.2065386672</v>
+      </c>
+      <c r="P54">
+        <v>0.9408983728000002</v>
+      </c>
+      <c r="Q54">
+        <v>1.5688983728</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1244143666102706</v>
+      </c>
+      <c r="T54">
+        <v>1.612195003164731</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.18</v>
+      </c>
+      <c r="W54">
+        <v>0.013284</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>26.74867199126809</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06655668647960321</v>
+      </c>
+      <c r="C55">
+        <v>2.935451358717882</v>
+      </c>
+      <c r="D55">
+        <v>5.486151358717882</v>
+      </c>
+      <c r="E55">
+        <v>0.4237000000000002</v>
+      </c>
+      <c r="F55">
+        <v>2.8037</v>
+      </c>
+      <c r="G55">
+        <v>0.253</v>
+      </c>
+      <c r="H55">
+        <v>2.91</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.82</v>
+      </c>
+      <c r="K55">
+        <v>0.628</v>
+      </c>
+      <c r="L55">
+        <v>1.192</v>
+      </c>
+      <c r="M55">
+        <v>0.04541994</v>
+      </c>
+      <c r="N55">
+        <v>1.14658006</v>
+      </c>
+      <c r="O55">
+        <v>0.2063844108</v>
+      </c>
+      <c r="P55">
+        <v>0.9401956492000002</v>
+      </c>
+      <c r="Q55">
+        <v>1.5681956492</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1266301414459643</v>
+      </c>
+      <c r="T55">
+        <v>1.643227281962197</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.18</v>
+      </c>
+      <c r="W55">
+        <v>0.013284</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>26.24398006690454</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06648679698627656</v>
+      </c>
+      <c r="C56">
+        <v>2.885031680611546</v>
+      </c>
+      <c r="D56">
+        <v>5.488631680611546</v>
+      </c>
+      <c r="E56">
+        <v>0.4766000000000004</v>
+      </c>
+      <c r="F56">
+        <v>2.8566</v>
+      </c>
+      <c r="G56">
+        <v>0.253</v>
+      </c>
+      <c r="H56">
+        <v>2.91</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.82</v>
+      </c>
+      <c r="K56">
+        <v>0.628</v>
+      </c>
+      <c r="L56">
+        <v>1.192</v>
+      </c>
+      <c r="M56">
+        <v>0.04627692</v>
+      </c>
+      <c r="N56">
+        <v>1.14572308</v>
+      </c>
+      <c r="O56">
+        <v>0.2062301544</v>
+      </c>
+      <c r="P56">
+        <v>0.9394929256000002</v>
+      </c>
+      <c r="Q56">
+        <v>1.5674929256</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1289422543179925</v>
+      </c>
+      <c r="T56">
+        <v>1.675608790272596</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.18</v>
+      </c>
+      <c r="W56">
+        <v>0.013284</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>25.75798043603594</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06641690749294994</v>
+      </c>
+      <c r="C57">
+        <v>2.834614246256397</v>
+      </c>
+      <c r="D57">
+        <v>5.491114246256397</v>
+      </c>
+      <c r="E57">
+        <v>0.5295000000000005</v>
+      </c>
+      <c r="F57">
+        <v>2.9095</v>
+      </c>
+      <c r="G57">
+        <v>0.253</v>
+      </c>
+      <c r="H57">
+        <v>2.91</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.82</v>
+      </c>
+      <c r="K57">
+        <v>0.628</v>
+      </c>
+      <c r="L57">
+        <v>1.192</v>
+      </c>
+      <c r="M57">
+        <v>0.04713390000000001</v>
+      </c>
+      <c r="N57">
+        <v>1.1448661</v>
+      </c>
+      <c r="O57">
+        <v>0.206075898</v>
+      </c>
+      <c r="P57">
+        <v>0.9387902020000002</v>
+      </c>
+      <c r="Q57">
+        <v>1.566790202</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.131357127762111</v>
+      </c>
+      <c r="T57">
+        <v>1.709429476730124</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.18</v>
+      </c>
+      <c r="W57">
+        <v>0.013284</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>25.2896535190171</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06634701799962327</v>
+      </c>
+      <c r="C58">
+        <v>2.78419905869843</v>
+      </c>
+      <c r="D58">
+        <v>5.49359905869843</v>
+      </c>
+      <c r="E58">
+        <v>0.5824000000000003</v>
+      </c>
+      <c r="F58">
+        <v>2.9624</v>
+      </c>
+      <c r="G58">
+        <v>0.253</v>
+      </c>
+      <c r="H58">
+        <v>2.91</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.82</v>
+      </c>
+      <c r="K58">
+        <v>0.628</v>
+      </c>
+      <c r="L58">
+        <v>1.192</v>
+      </c>
+      <c r="M58">
+        <v>0.04799088</v>
+      </c>
+      <c r="N58">
+        <v>1.14400912</v>
+      </c>
+      <c r="O58">
+        <v>0.2059216416</v>
+      </c>
+      <c r="P58">
+        <v>0.9380874784000002</v>
+      </c>
+      <c r="Q58">
+        <v>1.5660874784</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.133881768180962</v>
+      </c>
+      <c r="T58">
+        <v>1.744787467117539</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.18</v>
+      </c>
+      <c r="W58">
+        <v>0.013284</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>24.83805256332037</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06627712850629663</v>
+      </c>
+      <c r="C59">
+        <v>2.733786120989151</v>
+      </c>
+      <c r="D59">
+        <v>5.496086120989151</v>
+      </c>
+      <c r="E59">
+        <v>0.6353000000000004</v>
+      </c>
+      <c r="F59">
+        <v>3.0153</v>
+      </c>
+      <c r="G59">
+        <v>0.253</v>
+      </c>
+      <c r="H59">
+        <v>2.91</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.82</v>
+      </c>
+      <c r="K59">
+        <v>0.628</v>
+      </c>
+      <c r="L59">
+        <v>1.192</v>
+      </c>
+      <c r="M59">
+        <v>0.04884786</v>
+      </c>
+      <c r="N59">
+        <v>1.14315214</v>
+      </c>
+      <c r="O59">
+        <v>0.2057673852</v>
+      </c>
+      <c r="P59">
+        <v>0.9373847548000002</v>
+      </c>
+      <c r="Q59">
+        <v>1.5653847548</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1365238337355736</v>
+      </c>
+      <c r="T59">
+        <v>1.781790015197393</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.18</v>
+      </c>
+      <c r="W59">
+        <v>0.013284</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>24.40229725519194</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06620723901296999</v>
+      </c>
+      <c r="C60">
+        <v>2.683375436185603</v>
+      </c>
+      <c r="D60">
+        <v>5.498575436185603</v>
+      </c>
+      <c r="E60">
+        <v>0.6881999999999997</v>
+      </c>
+      <c r="F60">
+        <v>3.0682</v>
+      </c>
+      <c r="G60">
+        <v>0.253</v>
+      </c>
+      <c r="H60">
+        <v>2.91</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.82</v>
+      </c>
+      <c r="K60">
+        <v>0.628</v>
+      </c>
+      <c r="L60">
+        <v>1.192</v>
+      </c>
+      <c r="M60">
+        <v>0.04970483999999999</v>
+      </c>
+      <c r="N60">
+        <v>1.14229516</v>
+      </c>
+      <c r="O60">
+        <v>0.2056131288</v>
+      </c>
+      <c r="P60">
+        <v>0.9366820312000002</v>
+      </c>
+      <c r="Q60">
+        <v>1.5646820312</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1392917119356428</v>
+      </c>
+      <c r="T60">
+        <v>1.820554589376286</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.18</v>
+      </c>
+      <c r="W60">
+        <v>0.013284</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>23.98156799217139</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06613734951964334</v>
+      </c>
+      <c r="C61">
+        <v>2.632967007350362</v>
+      </c>
+      <c r="D61">
+        <v>5.501067007350362</v>
+      </c>
+      <c r="E61">
+        <v>0.7410999999999999</v>
+      </c>
+      <c r="F61">
+        <v>3.1211</v>
+      </c>
+      <c r="G61">
+        <v>0.253</v>
+      </c>
+      <c r="H61">
+        <v>2.91</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.82</v>
+      </c>
+      <c r="K61">
+        <v>0.628</v>
+      </c>
+      <c r="L61">
+        <v>1.192</v>
+      </c>
+      <c r="M61">
+        <v>0.05056181999999999</v>
+      </c>
+      <c r="N61">
+        <v>1.14143818</v>
+      </c>
+      <c r="O61">
+        <v>0.2054588724</v>
+      </c>
+      <c r="P61">
+        <v>0.9359793076000001</v>
+      </c>
+      <c r="Q61">
+        <v>1.5639793076</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1421946085844959</v>
+      </c>
+      <c r="T61">
+        <v>1.861210118393175</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.18</v>
+      </c>
+      <c r="W61">
+        <v>0.013284</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>23.57510073806679</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06606746002631668</v>
+      </c>
+      <c r="C62">
+        <v>2.582560837551565</v>
+      </c>
+      <c r="D62">
+        <v>5.503560837551564</v>
+      </c>
+      <c r="E62">
+        <v>0.794</v>
+      </c>
+      <c r="F62">
+        <v>3.174</v>
+      </c>
+      <c r="G62">
+        <v>0.253</v>
+      </c>
+      <c r="H62">
+        <v>2.91</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.82</v>
+      </c>
+      <c r="K62">
+        <v>0.628</v>
+      </c>
+      <c r="L62">
+        <v>1.192</v>
+      </c>
+      <c r="M62">
+        <v>0.05141879999999999</v>
+      </c>
+      <c r="N62">
+        <v>1.1405812</v>
+      </c>
+      <c r="O62">
+        <v>0.205304616</v>
+      </c>
+      <c r="P62">
+        <v>0.9352765840000001</v>
+      </c>
+      <c r="Q62">
+        <v>1.563276584</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1452426500657917</v>
+      </c>
+      <c r="T62">
+        <v>1.903898423860909</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.18</v>
+      </c>
+      <c r="W62">
+        <v>0.013284</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>23.18218239243235</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06599757053299005</v>
+      </c>
+      <c r="C63">
+        <v>2.532156929862906</v>
+      </c>
+      <c r="D63">
+        <v>5.506056929862906</v>
+      </c>
+      <c r="E63">
+        <v>0.8469000000000002</v>
+      </c>
+      <c r="F63">
+        <v>3.2269</v>
+      </c>
+      <c r="G63">
+        <v>0.253</v>
+      </c>
+      <c r="H63">
+        <v>2.91</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.82</v>
+      </c>
+      <c r="K63">
+        <v>0.628</v>
+      </c>
+      <c r="L63">
+        <v>1.192</v>
+      </c>
+      <c r="M63">
+        <v>0.05227578</v>
+      </c>
+      <c r="N63">
+        <v>1.13972422</v>
+      </c>
+      <c r="O63">
+        <v>0.2051503596</v>
+      </c>
+      <c r="P63">
+        <v>0.9345738604000001</v>
+      </c>
+      <c r="Q63">
+        <v>1.5625738604</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1484470013666411</v>
+      </c>
+      <c r="T63">
+        <v>1.948775873198783</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.18</v>
+      </c>
+      <c r="W63">
+        <v>0.013284</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>22.80214661550722</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06592768103966339</v>
+      </c>
+      <c r="C64">
+        <v>2.481755287363669</v>
+      </c>
+      <c r="D64">
+        <v>5.508555287363668</v>
+      </c>
+      <c r="E64">
+        <v>0.8997999999999999</v>
+      </c>
+      <c r="F64">
+        <v>3.2798</v>
+      </c>
+      <c r="G64">
+        <v>0.253</v>
+      </c>
+      <c r="H64">
+        <v>2.91</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.82</v>
+      </c>
+      <c r="K64">
+        <v>0.628</v>
+      </c>
+      <c r="L64">
+        <v>1.192</v>
+      </c>
+      <c r="M64">
+        <v>0.05313275999999999</v>
+      </c>
+      <c r="N64">
+        <v>1.13886724</v>
+      </c>
+      <c r="O64">
+        <v>0.2049961032</v>
+      </c>
+      <c r="P64">
+        <v>0.9338711368000001</v>
+      </c>
+      <c r="Q64">
+        <v>1.5618711368</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1518200027359563</v>
+      </c>
+      <c r="T64">
+        <v>1.996015293554439</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.18</v>
+      </c>
+      <c r="W64">
+        <v>0.013284</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>22.43437005719259</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06585779154633674</v>
+      </c>
+      <c r="C65">
+        <v>2.431355913138717</v>
+      </c>
+      <c r="D65">
+        <v>5.511055913138717</v>
+      </c>
+      <c r="E65">
+        <v>0.9527000000000001</v>
+      </c>
+      <c r="F65">
+        <v>3.3327</v>
+      </c>
+      <c r="G65">
+        <v>0.253</v>
+      </c>
+      <c r="H65">
+        <v>2.91</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.82</v>
+      </c>
+      <c r="K65">
+        <v>0.628</v>
+      </c>
+      <c r="L65">
+        <v>1.192</v>
+      </c>
+      <c r="M65">
+        <v>0.05398973999999999</v>
+      </c>
+      <c r="N65">
+        <v>1.13801026</v>
+      </c>
+      <c r="O65">
+        <v>0.2048418468</v>
+      </c>
+      <c r="P65">
+        <v>0.9331684132000001</v>
+      </c>
+      <c r="Q65">
+        <v>1.5611684132</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1553753285036128</v>
+      </c>
+      <c r="T65">
+        <v>2.045808196091482</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.18</v>
+      </c>
+      <c r="W65">
+        <v>0.013284</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>22.07826894517366</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06578790205301011</v>
+      </c>
+      <c r="C66">
+        <v>2.380958810278528</v>
+      </c>
+      <c r="D66">
+        <v>5.513558810278528</v>
+      </c>
+      <c r="E66">
+        <v>1.0056</v>
+      </c>
+      <c r="F66">
+        <v>3.3856</v>
+      </c>
+      <c r="G66">
+        <v>0.253</v>
+      </c>
+      <c r="H66">
+        <v>2.91</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.82</v>
+      </c>
+      <c r="K66">
+        <v>0.628</v>
+      </c>
+      <c r="L66">
+        <v>1.192</v>
+      </c>
+      <c r="M66">
+        <v>0.05484672</v>
+      </c>
+      <c r="N66">
+        <v>1.13715328</v>
+      </c>
+      <c r="O66">
+        <v>0.2046875904</v>
+      </c>
+      <c r="P66">
+        <v>0.9324656896000001</v>
+      </c>
+      <c r="Q66">
+        <v>1.5604656896</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1591281723694725</v>
+      </c>
+      <c r="T66">
+        <v>2.098367370991695</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.18</v>
+      </c>
+      <c r="W66">
+        <v>0.013284</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>21.73329599290532</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06571801255968344</v>
+      </c>
+      <c r="C67">
+        <v>2.330563981879192</v>
+      </c>
+      <c r="D67">
+        <v>5.516063981879192</v>
+      </c>
+      <c r="E67">
+        <v>1.0585</v>
+      </c>
+      <c r="F67">
+        <v>3.4385</v>
+      </c>
+      <c r="G67">
+        <v>0.253</v>
+      </c>
+      <c r="H67">
+        <v>2.91</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.82</v>
+      </c>
+      <c r="K67">
+        <v>0.628</v>
+      </c>
+      <c r="L67">
+        <v>1.192</v>
+      </c>
+      <c r="M67">
+        <v>0.0557037</v>
+      </c>
+      <c r="N67">
+        <v>1.1362963</v>
+      </c>
+      <c r="O67">
+        <v>0.204533334</v>
+      </c>
+      <c r="P67">
+        <v>0.9317629660000002</v>
+      </c>
+      <c r="Q67">
+        <v>1.559762966</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1630954644562384</v>
+      </c>
+      <c r="T67">
+        <v>2.153929927314776</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.18</v>
+      </c>
+      <c r="W67">
+        <v>0.013284</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>21.39893759301447</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06564812306635678</v>
+      </c>
+      <c r="C68">
+        <v>2.280171431042427</v>
+      </c>
+      <c r="D68">
+        <v>5.518571431042427</v>
+      </c>
+      <c r="E68">
+        <v>1.1114</v>
+      </c>
+      <c r="F68">
+        <v>3.4914</v>
+      </c>
+      <c r="G68">
+        <v>0.253</v>
+      </c>
+      <c r="H68">
+        <v>2.91</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.82</v>
+      </c>
+      <c r="K68">
+        <v>0.628</v>
+      </c>
+      <c r="L68">
+        <v>1.192</v>
+      </c>
+      <c r="M68">
+        <v>0.05656068</v>
+      </c>
+      <c r="N68">
+        <v>1.13543932</v>
+      </c>
+      <c r="O68">
+        <v>0.2043790776</v>
+      </c>
+      <c r="P68">
+        <v>0.9310602424000001</v>
+      </c>
+      <c r="Q68">
+        <v>1.5590602424</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1672961266657553</v>
+      </c>
+      <c r="T68">
+        <v>2.212760869303921</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.18</v>
+      </c>
+      <c r="W68">
+        <v>0.013284</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>21.07471126584759</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06557823357303015</v>
+      </c>
+      <c r="C69">
+        <v>2.229781160875595</v>
+      </c>
+      <c r="D69">
+        <v>5.521081160875595</v>
+      </c>
+      <c r="E69">
+        <v>1.1643</v>
+      </c>
+      <c r="F69">
+        <v>3.5443</v>
+      </c>
+      <c r="G69">
+        <v>0.253</v>
+      </c>
+      <c r="H69">
+        <v>2.91</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.82</v>
+      </c>
+      <c r="K69">
+        <v>0.628</v>
+      </c>
+      <c r="L69">
+        <v>1.192</v>
+      </c>
+      <c r="M69">
+        <v>0.05741766</v>
+      </c>
+      <c r="N69">
+        <v>1.13458234</v>
+      </c>
+      <c r="O69">
+        <v>0.2042248212</v>
+      </c>
+      <c r="P69">
+        <v>0.9303575188000002</v>
+      </c>
+      <c r="Q69">
+        <v>1.5583575188</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1717513744637277</v>
+      </c>
+      <c r="T69">
+        <v>2.275157322928772</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.18</v>
+      </c>
+      <c r="W69">
+        <v>0.013284</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>20.76016333650658</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06550834407970349</v>
+      </c>
+      <c r="C70">
+        <v>2.179393174491714</v>
+      </c>
+      <c r="D70">
+        <v>5.523593174491714</v>
+      </c>
+      <c r="E70">
+        <v>1.217200000000001</v>
+      </c>
+      <c r="F70">
+        <v>3.5972</v>
+      </c>
+      <c r="G70">
+        <v>0.253</v>
+      </c>
+      <c r="H70">
+        <v>2.91</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.82</v>
+      </c>
+      <c r="K70">
+        <v>0.628</v>
+      </c>
+      <c r="L70">
+        <v>1.192</v>
+      </c>
+      <c r="M70">
+        <v>0.05827464</v>
+      </c>
+      <c r="N70">
+        <v>1.13372536</v>
+      </c>
+      <c r="O70">
+        <v>0.2040705648</v>
+      </c>
+      <c r="P70">
+        <v>0.9296547952000001</v>
+      </c>
+      <c r="Q70">
+        <v>1.5576547952</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1764850752490734</v>
+      </c>
+      <c r="T70">
+        <v>2.341453554905176</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.18</v>
+      </c>
+      <c r="W70">
+        <v>0.013284</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>20.45486681685206</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06543845458637686</v>
+      </c>
+      <c r="C71">
+        <v>2.129007475009471</v>
+      </c>
+      <c r="D71">
+        <v>5.526107475009471</v>
+      </c>
+      <c r="E71">
+        <v>1.2701</v>
+      </c>
+      <c r="F71">
+        <v>3.6501</v>
+      </c>
+      <c r="G71">
+        <v>0.253</v>
+      </c>
+      <c r="H71">
+        <v>2.91</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.82</v>
+      </c>
+      <c r="K71">
+        <v>0.628</v>
+      </c>
+      <c r="L71">
+        <v>1.192</v>
+      </c>
+      <c r="M71">
+        <v>0.05913162</v>
+      </c>
+      <c r="N71">
+        <v>1.13286838</v>
+      </c>
+      <c r="O71">
+        <v>0.2039163084</v>
+      </c>
+      <c r="P71">
+        <v>0.9289520716000002</v>
+      </c>
+      <c r="Q71">
+        <v>1.5569520716</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1815241760850867</v>
+      </c>
+      <c r="T71">
+        <v>2.412026963138123</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.18</v>
+      </c>
+      <c r="W71">
+        <v>0.013284</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>20.1584194716803</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.0653685650930502</v>
+      </c>
+      <c r="C72">
+        <v>2.07862406555323</v>
+      </c>
+      <c r="D72">
+        <v>5.52862406555323</v>
+      </c>
+      <c r="E72">
+        <v>1.323</v>
+      </c>
+      <c r="F72">
+        <v>3.703</v>
+      </c>
+      <c r="G72">
+        <v>0.253</v>
+      </c>
+      <c r="H72">
+        <v>2.91</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.82</v>
+      </c>
+      <c r="K72">
+        <v>0.628</v>
+      </c>
+      <c r="L72">
+        <v>1.192</v>
+      </c>
+      <c r="M72">
+        <v>0.0599886</v>
+      </c>
+      <c r="N72">
+        <v>1.1320114</v>
+      </c>
+      <c r="O72">
+        <v>0.203762052</v>
+      </c>
+      <c r="P72">
+        <v>0.9282493480000001</v>
+      </c>
+      <c r="Q72">
+        <v>1.556249348</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.186899216976834</v>
+      </c>
+      <c r="T72">
+        <v>2.487305265253266</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.18</v>
+      </c>
+      <c r="W72">
+        <v>0.013284</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>19.87044205065629</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.06529867559972356</v>
+      </c>
+      <c r="C73">
+        <v>2.028242949253054</v>
+      </c>
+      <c r="D73">
+        <v>5.531142949253054</v>
+      </c>
+      <c r="E73">
+        <v>1.3759</v>
+      </c>
+      <c r="F73">
+        <v>3.7559</v>
+      </c>
+      <c r="G73">
+        <v>0.253</v>
+      </c>
+      <c r="H73">
+        <v>2.91</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.82</v>
+      </c>
+      <c r="K73">
+        <v>0.628</v>
+      </c>
+      <c r="L73">
+        <v>1.192</v>
+      </c>
+      <c r="M73">
+        <v>0.06084558</v>
+      </c>
+      <c r="N73">
+        <v>1.13115442</v>
+      </c>
+      <c r="O73">
+        <v>0.2036077956</v>
+      </c>
+      <c r="P73">
+        <v>0.9275466244000001</v>
+      </c>
+      <c r="Q73">
+        <v>1.5555466244</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1926449503438743</v>
+      </c>
+      <c r="T73">
+        <v>2.567775174410832</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.18</v>
+      </c>
+      <c r="W73">
+        <v>0.013284</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>19.59057666966114</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.0652287861063969</v>
+      </c>
+      <c r="C74">
+        <v>1.977864129244709</v>
+      </c>
+      <c r="D74">
+        <v>5.533664129244708</v>
+      </c>
+      <c r="E74">
+        <v>1.4288</v>
+      </c>
+      <c r="F74">
+        <v>3.8088</v>
+      </c>
+      <c r="G74">
+        <v>0.253</v>
+      </c>
+      <c r="H74">
+        <v>2.91</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.82</v>
+      </c>
+      <c r="K74">
+        <v>0.628</v>
+      </c>
+      <c r="L74">
+        <v>1.192</v>
+      </c>
+      <c r="M74">
+        <v>0.06170255999999999</v>
+      </c>
+      <c r="N74">
+        <v>1.13029744</v>
+      </c>
+      <c r="O74">
+        <v>0.2034535392</v>
+      </c>
+      <c r="P74">
+        <v>0.9268439008000001</v>
+      </c>
+      <c r="Q74">
+        <v>1.5548439008</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1988010932371318</v>
+      </c>
+      <c r="T74">
+        <v>2.65399293422251</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.18</v>
+      </c>
+      <c r="W74">
+        <v>0.013284</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>19.31848532702696</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.06515889661307026</v>
+      </c>
+      <c r="C75">
+        <v>1.92748760866968</v>
+      </c>
+      <c r="D75">
+        <v>5.53618760866968</v>
+      </c>
+      <c r="E75">
+        <v>1.4817</v>
+      </c>
+      <c r="F75">
+        <v>3.8617</v>
+      </c>
+      <c r="G75">
+        <v>0.253</v>
+      </c>
+      <c r="H75">
+        <v>2.91</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.82</v>
+      </c>
+      <c r="K75">
+        <v>0.628</v>
+      </c>
+      <c r="L75">
+        <v>1.192</v>
+      </c>
+      <c r="M75">
+        <v>0.06255954</v>
+      </c>
+      <c r="N75">
+        <v>1.12944046</v>
+      </c>
+      <c r="O75">
+        <v>0.2032992828</v>
+      </c>
+      <c r="P75">
+        <v>0.9261411772000001</v>
+      </c>
+      <c r="Q75">
+        <v>1.5541411772</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.205413246715075</v>
+      </c>
+      <c r="T75">
+        <v>2.746597194760979</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.18</v>
+      </c>
+      <c r="W75">
+        <v>0.013284</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>19.05384854172521</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06508900711974362</v>
+      </c>
+      <c r="C76">
+        <v>1.87711339067519</v>
+      </c>
+      <c r="D76">
+        <v>5.53871339067519</v>
+      </c>
+      <c r="E76">
+        <v>1.5346</v>
+      </c>
+      <c r="F76">
+        <v>3.9146</v>
+      </c>
+      <c r="G76">
+        <v>0.253</v>
+      </c>
+      <c r="H76">
+        <v>2.91</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.82</v>
+      </c>
+      <c r="K76">
+        <v>0.628</v>
+      </c>
+      <c r="L76">
+        <v>1.192</v>
+      </c>
+      <c r="M76">
+        <v>0.06341652</v>
+      </c>
+      <c r="N76">
+        <v>1.12858348</v>
+      </c>
+      <c r="O76">
+        <v>0.2031450264</v>
+      </c>
+      <c r="P76">
+        <v>0.9254384536000001</v>
+      </c>
+      <c r="Q76">
+        <v>1.5534384536</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2125340273836293</v>
+      </c>
+      <c r="T76">
+        <v>2.846324859956254</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.18</v>
+      </c>
+      <c r="W76">
+        <v>0.013284</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>18.79636410197217</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06501911762641696</v>
+      </c>
+      <c r="C77">
+        <v>1.826741478414207</v>
+      </c>
+      <c r="D77">
+        <v>5.541241478414207</v>
+      </c>
+      <c r="E77">
+        <v>1.5875</v>
+      </c>
+      <c r="F77">
+        <v>3.9675</v>
+      </c>
+      <c r="G77">
+        <v>0.253</v>
+      </c>
+      <c r="H77">
+        <v>2.91</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.82</v>
+      </c>
+      <c r="K77">
+        <v>0.628</v>
+      </c>
+      <c r="L77">
+        <v>1.192</v>
+      </c>
+      <c r="M77">
+        <v>0.0642735</v>
+      </c>
+      <c r="N77">
+        <v>1.1277265</v>
+      </c>
+      <c r="O77">
+        <v>0.20299077</v>
+      </c>
+      <c r="P77">
+        <v>0.9247357300000001</v>
+      </c>
+      <c r="Q77">
+        <v>1.55273573</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2202244705056678</v>
+      </c>
+      <c r="T77">
+        <v>2.95403073836715</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.18</v>
+      </c>
+      <c r="W77">
+        <v>0.013284</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>18.54574591394588</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.06494922813309031</v>
+      </c>
+      <c r="C78">
+        <v>1.776371875045454</v>
+      </c>
+      <c r="D78">
+        <v>5.543771875045454</v>
+      </c>
+      <c r="E78">
+        <v>1.640400000000001</v>
+      </c>
+      <c r="F78">
+        <v>4.0204</v>
+      </c>
+      <c r="G78">
+        <v>0.253</v>
+      </c>
+      <c r="H78">
+        <v>2.91</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.82</v>
+      </c>
+      <c r="K78">
+        <v>0.628</v>
+      </c>
+      <c r="L78">
+        <v>1.192</v>
+      </c>
+      <c r="M78">
+        <v>0.06513048</v>
+      </c>
+      <c r="N78">
+        <v>1.12686952</v>
+      </c>
+      <c r="O78">
+        <v>0.2028365136</v>
+      </c>
+      <c r="P78">
+        <v>0.9240330064000001</v>
+      </c>
+      <c r="Q78">
+        <v>1.5520330064</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2285557838878763</v>
+      </c>
+      <c r="T78">
+        <v>3.070712106645622</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.18</v>
+      </c>
+      <c r="W78">
+        <v>0.013284</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>18.30172294139395</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06487933863976367</v>
+      </c>
+      <c r="C79">
+        <v>1.726004583733429</v>
+      </c>
+      <c r="D79">
+        <v>5.546304583733429</v>
+      </c>
+      <c r="E79">
+        <v>1.6933</v>
+      </c>
+      <c r="F79">
+        <v>4.0733</v>
+      </c>
+      <c r="G79">
+        <v>0.253</v>
+      </c>
+      <c r="H79">
+        <v>2.91</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.82</v>
+      </c>
+      <c r="K79">
+        <v>0.628</v>
+      </c>
+      <c r="L79">
+        <v>1.192</v>
+      </c>
+      <c r="M79">
+        <v>0.06598746</v>
+      </c>
+      <c r="N79">
+        <v>1.12601254</v>
+      </c>
+      <c r="O79">
+        <v>0.2026822572</v>
+      </c>
+      <c r="P79">
+        <v>0.9233302828000001</v>
+      </c>
+      <c r="Q79">
+        <v>1.5513302828</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2376115593033203</v>
+      </c>
+      <c r="T79">
+        <v>3.197539680861351</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.18</v>
+      </c>
+      <c r="W79">
+        <v>0.013284</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>18.06403822786936</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.06480944914643702</v>
+      </c>
+      <c r="C80">
+        <v>1.675639607648416</v>
+      </c>
+      <c r="D80">
+        <v>5.548839607648416</v>
+      </c>
+      <c r="E80">
+        <v>1.7462</v>
+      </c>
+      <c r="F80">
+        <v>4.1262</v>
+      </c>
+      <c r="G80">
+        <v>0.253</v>
+      </c>
+      <c r="H80">
+        <v>2.91</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.82</v>
+      </c>
+      <c r="K80">
+        <v>0.628</v>
+      </c>
+      <c r="L80">
+        <v>1.192</v>
+      </c>
+      <c r="M80">
+        <v>0.06684443999999999</v>
+      </c>
+      <c r="N80">
+        <v>1.12515556</v>
+      </c>
+      <c r="O80">
+        <v>0.2025280008000001</v>
+      </c>
+      <c r="P80">
+        <v>0.9226275592000002</v>
+      </c>
+      <c r="Q80">
+        <v>1.5506275592</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2474905870292592</v>
+      </c>
+      <c r="T80">
+        <v>3.335897034551238</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.18</v>
+      </c>
+      <c r="W80">
+        <v>0.013284</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>17.83244799417873</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.06473955965311037</v>
+      </c>
+      <c r="C81">
+        <v>1.625276949966496</v>
+      </c>
+      <c r="D81">
+        <v>5.551376949966496</v>
+      </c>
+      <c r="E81">
+        <v>1.7991</v>
+      </c>
+      <c r="F81">
+        <v>4.1791</v>
+      </c>
+      <c r="G81">
+        <v>0.253</v>
+      </c>
+      <c r="H81">
+        <v>2.91</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.82</v>
+      </c>
+      <c r="K81">
+        <v>0.628</v>
+      </c>
+      <c r="L81">
+        <v>1.192</v>
+      </c>
+      <c r="M81">
+        <v>0.06770142</v>
+      </c>
+      <c r="N81">
+        <v>1.12429858</v>
+      </c>
+      <c r="O81">
+        <v>0.2023737444</v>
+      </c>
+      <c r="P81">
+        <v>0.9219248356000003</v>
+      </c>
+      <c r="Q81">
+        <v>1.5499248356</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2583104745386209</v>
+      </c>
+      <c r="T81">
+        <v>3.487431279068734</v>
+      </c>
+      <c r="U81">
+        <v>0.0162</v>
+      </c>
+      <c r="V81">
+        <v>0.18</v>
+      </c>
+      <c r="W81">
+        <v>0.013284</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>17.606720804379</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.06466967015978371</v>
+      </c>
+      <c r="C82">
+        <v>1.574916613869564</v>
+      </c>
+      <c r="D82">
+        <v>5.553916613869564</v>
+      </c>
+      <c r="E82">
+        <v>1.852</v>
+      </c>
+      <c r="F82">
+        <v>4.232</v>
+      </c>
+      <c r="G82">
+        <v>0.253</v>
+      </c>
+      <c r="H82">
+        <v>2.91</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.82</v>
+      </c>
+      <c r="K82">
+        <v>0.628</v>
+      </c>
+      <c r="L82">
+        <v>1.192</v>
+      </c>
+      <c r="M82">
+        <v>0.06855840000000001</v>
+      </c>
+      <c r="N82">
+        <v>1.1234416</v>
+      </c>
+      <c r="O82">
+        <v>0.202219488</v>
+      </c>
+      <c r="P82">
+        <v>0.9212221120000003</v>
+      </c>
+      <c r="Q82">
+        <v>1.549222112</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2702123507989186</v>
+      </c>
+      <c r="T82">
+        <v>3.654118948037979</v>
+      </c>
+      <c r="U82">
+        <v>0.0162</v>
+      </c>
+      <c r="V82">
+        <v>0.18</v>
+      </c>
+      <c r="W82">
+        <v>0.013284</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>17.38663679432426</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06459978066645708</v>
+      </c>
+      <c r="C83">
+        <v>1.524558602545341</v>
+      </c>
+      <c r="D83">
+        <v>5.556458602545341</v>
+      </c>
+      <c r="E83">
+        <v>1.9049</v>
+      </c>
+      <c r="F83">
+        <v>4.2849</v>
+      </c>
+      <c r="G83">
+        <v>0.253</v>
+      </c>
+      <c r="H83">
+        <v>2.91</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.82</v>
+      </c>
+      <c r="K83">
+        <v>0.628</v>
+      </c>
+      <c r="L83">
+        <v>1.192</v>
+      </c>
+      <c r="M83">
+        <v>0.06941538</v>
+      </c>
+      <c r="N83">
+        <v>1.12258462</v>
+      </c>
+      <c r="O83">
+        <v>0.2020652316</v>
+      </c>
+      <c r="P83">
+        <v>0.9205193884000002</v>
+      </c>
+      <c r="Q83">
+        <v>1.5485193884</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2833670561392478</v>
+      </c>
+      <c r="T83">
+        <v>3.838352687425039</v>
+      </c>
+      <c r="U83">
+        <v>0.0162</v>
+      </c>
+      <c r="V83">
+        <v>0.18</v>
+      </c>
+      <c r="W83">
+        <v>0.013284</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>17.17198695735729</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.0645298911731304</v>
+      </c>
+      <c r="C84">
+        <v>1.474202919187382</v>
+      </c>
+      <c r="D84">
+        <v>5.559002919187383</v>
+      </c>
+      <c r="E84">
+        <v>1.957800000000001</v>
+      </c>
+      <c r="F84">
+        <v>4.337800000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.253</v>
+      </c>
+      <c r="H84">
+        <v>2.91</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.82</v>
+      </c>
+      <c r="K84">
+        <v>0.628</v>
+      </c>
+      <c r="L84">
+        <v>1.192</v>
+      </c>
+      <c r="M84">
+        <v>0.07027236000000001</v>
+      </c>
+      <c r="N84">
+        <v>1.12172764</v>
+      </c>
+      <c r="O84">
+        <v>0.2019109752</v>
+      </c>
+      <c r="P84">
+        <v>0.9198166648000002</v>
+      </c>
+      <c r="Q84">
+        <v>1.5478166648</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2979833954062802</v>
+      </c>
+      <c r="T84">
+        <v>4.043056842299549</v>
+      </c>
+      <c r="U84">
+        <v>0.0162</v>
+      </c>
+      <c r="V84">
+        <v>0.18</v>
+      </c>
+      <c r="W84">
+        <v>0.013284</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>16.96257248226757</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06446000167980377</v>
+      </c>
+      <c r="C85">
+        <v>1.423849566995099</v>
+      </c>
+      <c r="D85">
+        <v>5.5615495669951</v>
+      </c>
+      <c r="E85">
+        <v>2.010700000000001</v>
+      </c>
+      <c r="F85">
+        <v>4.390700000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.253</v>
+      </c>
+      <c r="H85">
+        <v>2.91</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.82</v>
+      </c>
+      <c r="K85">
+        <v>0.628</v>
+      </c>
+      <c r="L85">
+        <v>1.192</v>
+      </c>
+      <c r="M85">
+        <v>0.07112934000000001</v>
+      </c>
+      <c r="N85">
+        <v>1.12087066</v>
+      </c>
+      <c r="O85">
+        <v>0.2017567188</v>
+      </c>
+      <c r="P85">
+        <v>0.9191139412000002</v>
+      </c>
+      <c r="Q85">
+        <v>1.5471139412</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3143193039988458</v>
+      </c>
+      <c r="T85">
+        <v>4.271843838924004</v>
+      </c>
+      <c r="U85">
+        <v>0.0162</v>
+      </c>
+      <c r="V85">
+        <v>0.18</v>
+      </c>
+      <c r="W85">
+        <v>0.013284</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>16.75820413910772</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.06439011218647714</v>
+      </c>
+      <c r="C86">
+        <v>1.373498549173768</v>
+      </c>
+      <c r="D86">
+        <v>5.564098549173768</v>
+      </c>
+      <c r="E86">
+        <v>2.0636</v>
+      </c>
+      <c r="F86">
+        <v>4.4436</v>
+      </c>
+      <c r="G86">
+        <v>0.253</v>
+      </c>
+      <c r="H86">
+        <v>2.91</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.82</v>
+      </c>
+      <c r="K86">
+        <v>0.628</v>
+      </c>
+      <c r="L86">
+        <v>1.192</v>
+      </c>
+      <c r="M86">
+        <v>0.07198631999999999</v>
+      </c>
+      <c r="N86">
+        <v>1.12001368</v>
+      </c>
+      <c r="O86">
+        <v>0.2016024624</v>
+      </c>
+      <c r="P86">
+        <v>0.9184112176000002</v>
+      </c>
+      <c r="Q86">
+        <v>1.5464112176</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.332697201165482</v>
+      </c>
+      <c r="T86">
+        <v>4.529229210126512</v>
+      </c>
+      <c r="U86">
+        <v>0.0162</v>
+      </c>
+      <c r="V86">
+        <v>0.18</v>
+      </c>
+      <c r="W86">
+        <v>0.013284</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>16.55870170888025</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.06432022269315049</v>
+      </c>
+      <c r="C87">
+        <v>1.323149868934543</v>
+      </c>
+      <c r="D87">
+        <v>5.566649868934543</v>
+      </c>
+      <c r="E87">
+        <v>2.1165</v>
+      </c>
+      <c r="F87">
+        <v>4.4965</v>
+      </c>
+      <c r="G87">
+        <v>0.253</v>
+      </c>
+      <c r="H87">
+        <v>2.91</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.82</v>
+      </c>
+      <c r="K87">
+        <v>0.628</v>
+      </c>
+      <c r="L87">
+        <v>1.192</v>
+      </c>
+      <c r="M87">
+        <v>0.0728433</v>
+      </c>
+      <c r="N87">
+        <v>1.1191567</v>
+      </c>
+      <c r="O87">
+        <v>0.201448206</v>
+      </c>
+      <c r="P87">
+        <v>0.9177084940000002</v>
+      </c>
+      <c r="Q87">
+        <v>1.545708494</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3535254846210032</v>
+      </c>
+      <c r="T87">
+        <v>4.82093263082269</v>
+      </c>
+      <c r="U87">
+        <v>0.0162</v>
+      </c>
+      <c r="V87">
+        <v>0.18</v>
+      </c>
+      <c r="W87">
+        <v>0.013284</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>16.36389345348165</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.06425033319982384</v>
+      </c>
+      <c r="C88">
+        <v>1.272803529494471</v>
+      </c>
+      <c r="D88">
+        <v>5.569203529494471</v>
+      </c>
+      <c r="E88">
+        <v>2.1694</v>
+      </c>
+      <c r="F88">
+        <v>4.5494</v>
+      </c>
+      <c r="G88">
+        <v>0.253</v>
+      </c>
+      <c r="H88">
+        <v>2.91</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.82</v>
+      </c>
+      <c r="K88">
+        <v>0.628</v>
+      </c>
+      <c r="L88">
+        <v>1.192</v>
+      </c>
+      <c r="M88">
+        <v>0.07370028000000001</v>
+      </c>
+      <c r="N88">
+        <v>1.11829972</v>
+      </c>
+      <c r="O88">
+        <v>0.2012939496</v>
+      </c>
+      <c r="P88">
+        <v>0.9170057704000002</v>
+      </c>
+      <c r="Q88">
+        <v>1.5450057704</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3773292371415988</v>
+      </c>
+      <c r="T88">
+        <v>5.15430796876118</v>
+      </c>
+      <c r="U88">
+        <v>0.0162</v>
+      </c>
+      <c r="V88">
+        <v>0.18</v>
+      </c>
+      <c r="W88">
+        <v>0.013284</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>16.17361562262722</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.06418044370649718</v>
+      </c>
+      <c r="C89">
+        <v>1.222459534076505</v>
+      </c>
+      <c r="D89">
+        <v>5.571759534076505</v>
+      </c>
+      <c r="E89">
+        <v>2.2223</v>
+      </c>
+      <c r="F89">
+        <v>4.6023</v>
+      </c>
+      <c r="G89">
+        <v>0.253</v>
+      </c>
+      <c r="H89">
+        <v>2.91</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.82</v>
+      </c>
+      <c r="K89">
+        <v>0.628</v>
+      </c>
+      <c r="L89">
+        <v>1.192</v>
+      </c>
+      <c r="M89">
+        <v>0.07455725999999999</v>
+      </c>
+      <c r="N89">
+        <v>1.11744274</v>
+      </c>
+      <c r="O89">
+        <v>0.2011396932</v>
+      </c>
+      <c r="P89">
+        <v>0.9163030468000002</v>
+      </c>
+      <c r="Q89">
+        <v>1.5443030468</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4047951054345937</v>
+      </c>
+      <c r="T89">
+        <v>5.538971820228666</v>
+      </c>
+      <c r="U89">
+        <v>0.0162</v>
+      </c>
+      <c r="V89">
+        <v>0.18</v>
+      </c>
+      <c r="W89">
+        <v>0.013284</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>15.98771199478093</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.06411055421317054</v>
+      </c>
+      <c r="C90">
+        <v>1.172117885909517</v>
+      </c>
+      <c r="D90">
+        <v>5.574317885909517</v>
+      </c>
+      <c r="E90">
+        <v>2.2752</v>
+      </c>
+      <c r="F90">
+        <v>4.6552</v>
+      </c>
+      <c r="G90">
+        <v>0.253</v>
+      </c>
+      <c r="H90">
+        <v>2.91</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.82</v>
+      </c>
+      <c r="K90">
+        <v>0.628</v>
+      </c>
+      <c r="L90">
+        <v>1.192</v>
+      </c>
+      <c r="M90">
+        <v>0.07541423999999999</v>
+      </c>
+      <c r="N90">
+        <v>1.11658576</v>
+      </c>
+      <c r="O90">
+        <v>0.2009854368</v>
+      </c>
+      <c r="P90">
+        <v>0.9156003232000002</v>
+      </c>
+      <c r="Q90">
+        <v>1.5436003232</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4368386184430879</v>
+      </c>
+      <c r="T90">
+        <v>5.987746313607404</v>
+      </c>
+      <c r="U90">
+        <v>0.0162</v>
+      </c>
+      <c r="V90">
+        <v>0.18</v>
+      </c>
+      <c r="W90">
+        <v>0.013284</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>15.80603344938569</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.06404066471984388</v>
+      </c>
+      <c r="C91">
+        <v>1.121778588228312</v>
+      </c>
+      <c r="D91">
+        <v>5.576878588228312</v>
+      </c>
+      <c r="E91">
+        <v>2.3281</v>
+      </c>
+      <c r="F91">
+        <v>4.7081</v>
+      </c>
+      <c r="G91">
+        <v>0.253</v>
+      </c>
+      <c r="H91">
+        <v>2.91</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.82</v>
+      </c>
+      <c r="K91">
+        <v>0.628</v>
+      </c>
+      <c r="L91">
+        <v>1.192</v>
+      </c>
+      <c r="M91">
+        <v>0.07627122</v>
+      </c>
+      <c r="N91">
+        <v>1.11572878</v>
+      </c>
+      <c r="O91">
+        <v>0.2008311804</v>
+      </c>
+      <c r="P91">
+        <v>0.9148975996000002</v>
+      </c>
+      <c r="Q91">
+        <v>1.5428975996</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4747082247258536</v>
+      </c>
+      <c r="T91">
+        <v>6.518116169418636</v>
+      </c>
+      <c r="U91">
+        <v>0.0162</v>
+      </c>
+      <c r="V91">
+        <v>0.18</v>
+      </c>
+      <c r="W91">
+        <v>0.013284</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>15.62843756793192</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.06397077522651724</v>
+      </c>
+      <c r="C92">
+        <v>1.071441644273641</v>
+      </c>
+      <c r="D92">
+        <v>5.579441644273641</v>
+      </c>
+      <c r="E92">
+        <v>2.381</v>
+      </c>
+      <c r="F92">
+        <v>4.761</v>
+      </c>
+      <c r="G92">
+        <v>0.253</v>
+      </c>
+      <c r="H92">
+        <v>2.91</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.82</v>
+      </c>
+      <c r="K92">
+        <v>0.628</v>
+      </c>
+      <c r="L92">
+        <v>1.192</v>
+      </c>
+      <c r="M92">
+        <v>0.07712819999999999</v>
+      </c>
+      <c r="N92">
+        <v>1.1148718</v>
+      </c>
+      <c r="O92">
+        <v>0.200676924</v>
+      </c>
+      <c r="P92">
+        <v>0.9141948760000002</v>
+      </c>
+      <c r="Q92">
+        <v>1.542194876</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5201517522651725</v>
+      </c>
+      <c r="T92">
+        <v>7.154559996392117</v>
+      </c>
+      <c r="U92">
+        <v>0.0162</v>
+      </c>
+      <c r="V92">
+        <v>0.18</v>
+      </c>
+      <c r="W92">
+        <v>0.013284</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>15.45478826162156</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.0639008857331906</v>
+      </c>
+      <c r="C93">
+        <v>1.021107057292218</v>
+      </c>
+      <c r="D93">
+        <v>5.582007057292218</v>
+      </c>
+      <c r="E93">
+        <v>2.4339</v>
+      </c>
+      <c r="F93">
+        <v>4.8139</v>
+      </c>
+      <c r="G93">
+        <v>0.253</v>
+      </c>
+      <c r="H93">
+        <v>2.91</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.82</v>
+      </c>
+      <c r="K93">
+        <v>0.628</v>
+      </c>
+      <c r="L93">
+        <v>1.192</v>
+      </c>
+      <c r="M93">
+        <v>0.07798518</v>
+      </c>
+      <c r="N93">
+        <v>1.11401482</v>
+      </c>
+      <c r="O93">
+        <v>0.2005226676</v>
+      </c>
+      <c r="P93">
+        <v>0.9134921524000001</v>
+      </c>
+      <c r="Q93">
+        <v>1.5414921524</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5756938414798957</v>
+      </c>
+      <c r="T93">
+        <v>7.932435784915259</v>
+      </c>
+      <c r="U93">
+        <v>0.0162</v>
+      </c>
+      <c r="V93">
+        <v>0.18</v>
+      </c>
+      <c r="W93">
+        <v>0.013284</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>15.28495542358177</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.06383099623986395</v>
+      </c>
+      <c r="C94">
+        <v>0.9707748305367305</v>
+      </c>
+      <c r="D94">
+        <v>5.584574830536731</v>
+      </c>
+      <c r="E94">
+        <v>2.486800000000001</v>
+      </c>
+      <c r="F94">
+        <v>4.8668</v>
+      </c>
+      <c r="G94">
+        <v>0.253</v>
+      </c>
+      <c r="H94">
+        <v>2.91</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.82</v>
+      </c>
+      <c r="K94">
+        <v>0.628</v>
+      </c>
+      <c r="L94">
+        <v>1.192</v>
+      </c>
+      <c r="M94">
+        <v>0.07884216000000001</v>
+      </c>
+      <c r="N94">
+        <v>1.11315784</v>
+      </c>
+      <c r="O94">
+        <v>0.2003684112</v>
+      </c>
+      <c r="P94">
+        <v>0.9127894288000001</v>
+      </c>
+      <c r="Q94">
+        <v>1.5407894288</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6451214529982997</v>
+      </c>
+      <c r="T94">
+        <v>8.90478052056919</v>
+      </c>
+      <c r="U94">
+        <v>0.0162</v>
+      </c>
+      <c r="V94">
+        <v>0.18</v>
+      </c>
+      <c r="W94">
+        <v>0.013284</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>15.11881460376022</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.0637611067465373</v>
+      </c>
+      <c r="C95">
+        <v>0.9204449672658495</v>
+      </c>
+      <c r="D95">
+        <v>5.58714496726585</v>
+      </c>
+      <c r="E95">
+        <v>2.539700000000001</v>
+      </c>
+      <c r="F95">
+        <v>4.919700000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.253</v>
+      </c>
+      <c r="H95">
+        <v>2.91</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.82</v>
+      </c>
+      <c r="K95">
+        <v>0.628</v>
+      </c>
+      <c r="L95">
+        <v>1.192</v>
+      </c>
+      <c r="M95">
+        <v>0.07969914</v>
+      </c>
+      <c r="N95">
+        <v>1.11230086</v>
+      </c>
+      <c r="O95">
+        <v>0.2002141548</v>
+      </c>
+      <c r="P95">
+        <v>0.9120867052000001</v>
+      </c>
+      <c r="Q95">
+        <v>1.5400867052</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7343855249505333</v>
+      </c>
+      <c r="T95">
+        <v>10.15493803783853</v>
+      </c>
+      <c r="U95">
+        <v>0.0162</v>
+      </c>
+      <c r="V95">
+        <v>0.18</v>
+      </c>
+      <c r="W95">
+        <v>0.013284</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>14.95624670479506</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.06369121725321066</v>
+      </c>
+      <c r="C96">
+        <v>0.8701174707442547</v>
+      </c>
+      <c r="D96">
+        <v>5.589717470744255</v>
+      </c>
+      <c r="E96">
+        <v>2.5926</v>
+      </c>
+      <c r="F96">
+        <v>4.9726</v>
+      </c>
+      <c r="G96">
+        <v>0.253</v>
+      </c>
+      <c r="H96">
+        <v>2.91</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.82</v>
+      </c>
+      <c r="K96">
+        <v>0.628</v>
+      </c>
+      <c r="L96">
+        <v>1.192</v>
+      </c>
+      <c r="M96">
+        <v>0.08055611999999999</v>
+      </c>
+      <c r="N96">
+        <v>1.11144388</v>
+      </c>
+      <c r="O96">
+        <v>0.2000598984</v>
+      </c>
+      <c r="P96">
+        <v>0.9113839816000001</v>
+      </c>
+      <c r="Q96">
+        <v>1.5393839816</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8534042875535116</v>
+      </c>
+      <c r="T96">
+        <v>11.82181472753098</v>
+      </c>
+      <c r="U96">
+        <v>0.0162</v>
+      </c>
+      <c r="V96">
+        <v>0.18</v>
+      </c>
+      <c r="W96">
+        <v>0.013284</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>14.79713769729724</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.06362132775988402</v>
+      </c>
+      <c r="C97">
+        <v>0.8197923442426323</v>
+      </c>
+      <c r="D97">
+        <v>5.592292344242632</v>
+      </c>
+      <c r="E97">
+        <v>2.6455</v>
+      </c>
+      <c r="F97">
+        <v>5.0255</v>
+      </c>
+      <c r="G97">
+        <v>0.253</v>
+      </c>
+      <c r="H97">
+        <v>2.91</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.82</v>
+      </c>
+      <c r="K97">
+        <v>0.628</v>
+      </c>
+      <c r="L97">
+        <v>1.192</v>
+      </c>
+      <c r="M97">
+        <v>0.0814131</v>
+      </c>
+      <c r="N97">
+        <v>1.1105869</v>
+      </c>
+      <c r="O97">
+        <v>0.199905642</v>
+      </c>
+      <c r="P97">
+        <v>0.9106812580000001</v>
+      </c>
+      <c r="Q97">
+        <v>1.538681258</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.020030555197682</v>
+      </c>
+      <c r="T97">
+        <v>14.15544209310041</v>
+      </c>
+      <c r="U97">
+        <v>0.0162</v>
+      </c>
+      <c r="V97">
+        <v>0.18</v>
+      </c>
+      <c r="W97">
+        <v>0.013284</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>14.64137835311516</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.06355143826655736</v>
+      </c>
+      <c r="C98">
+        <v>0.7694695910377085</v>
+      </c>
+      <c r="D98">
+        <v>5.594869591037709</v>
+      </c>
+      <c r="E98">
+        <v>2.6984</v>
+      </c>
+      <c r="F98">
+        <v>5.0784</v>
+      </c>
+      <c r="G98">
+        <v>0.253</v>
+      </c>
+      <c r="H98">
+        <v>2.91</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.82</v>
+      </c>
+      <c r="K98">
+        <v>0.628</v>
+      </c>
+      <c r="L98">
+        <v>1.192</v>
+      </c>
+      <c r="M98">
+        <v>0.08227008</v>
+      </c>
+      <c r="N98">
+        <v>1.10972992</v>
+      </c>
+      <c r="O98">
+        <v>0.1997513856</v>
+      </c>
+      <c r="P98">
+        <v>0.9099785344000001</v>
+      </c>
+      <c r="Q98">
+        <v>1.5379785344</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.269969956663933</v>
+      </c>
+      <c r="T98">
+        <v>17.65588314145452</v>
+      </c>
+      <c r="U98">
+        <v>0.0162</v>
+      </c>
+      <c r="V98">
+        <v>0.18</v>
+      </c>
+      <c r="W98">
+        <v>0.013284</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>14.48886399527021</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.06348154877323071</v>
+      </c>
+      <c r="C99">
+        <v>0.7191492144122433</v>
+      </c>
+      <c r="D99">
+        <v>5.597449214412243</v>
+      </c>
+      <c r="E99">
+        <v>2.7513</v>
+      </c>
+      <c r="F99">
+        <v>5.1313</v>
+      </c>
+      <c r="G99">
+        <v>0.253</v>
+      </c>
+      <c r="H99">
+        <v>2.91</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.82</v>
+      </c>
+      <c r="K99">
+        <v>0.628</v>
+      </c>
+      <c r="L99">
+        <v>1.192</v>
+      </c>
+      <c r="M99">
+        <v>0.08312705999999999</v>
+      </c>
+      <c r="N99">
+        <v>1.10887294</v>
+      </c>
+      <c r="O99">
+        <v>0.1995971292</v>
+      </c>
+      <c r="P99">
+        <v>0.9092758108000001</v>
+      </c>
+      <c r="Q99">
+        <v>1.5372758108</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.686535625774356</v>
+      </c>
+      <c r="T99">
+        <v>23.48995155537807</v>
+      </c>
+      <c r="U99">
+        <v>0.0162</v>
+      </c>
+      <c r="V99">
+        <v>0.18</v>
+      </c>
+      <c r="W99">
+        <v>0.013284</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>14.33949426336021</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.06341165927990408</v>
+      </c>
+      <c r="C100">
+        <v>0.6688312176550575</v>
+      </c>
+      <c r="D100">
+        <v>5.600031217655057</v>
+      </c>
+      <c r="E100">
+        <v>2.8042</v>
+      </c>
+      <c r="F100">
+        <v>5.1842</v>
+      </c>
+      <c r="G100">
+        <v>0.253</v>
+      </c>
+      <c r="H100">
+        <v>2.91</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.82</v>
+      </c>
+      <c r="K100">
+        <v>0.628</v>
+      </c>
+      <c r="L100">
+        <v>1.192</v>
+      </c>
+      <c r="M100">
+        <v>0.08398404</v>
+      </c>
+      <c r="N100">
+        <v>1.10801596</v>
+      </c>
+      <c r="O100">
+        <v>0.1994428728</v>
+      </c>
+      <c r="P100">
+        <v>0.9085730872000002</v>
+      </c>
+      <c r="Q100">
+        <v>1.5365730872</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.519666963995201</v>
+      </c>
+      <c r="T100">
+        <v>35.15808838322519</v>
+      </c>
+      <c r="U100">
+        <v>0.0162</v>
+      </c>
+      <c r="V100">
+        <v>0.18</v>
+      </c>
+      <c r="W100">
+        <v>0.013284</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>14.19317289332592</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.06334176978657741</v>
+      </c>
+      <c r="C101">
+        <v>0.618515604061046</v>
+      </c>
+      <c r="D101">
+        <v>5.602615604061046</v>
+      </c>
+      <c r="E101">
+        <v>2.8571</v>
+      </c>
+      <c r="F101">
+        <v>5.2371</v>
+      </c>
+      <c r="G101">
+        <v>0.253</v>
+      </c>
+      <c r="H101">
+        <v>2.91</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.82</v>
+      </c>
+      <c r="K101">
+        <v>0.628</v>
+      </c>
+      <c r="L101">
+        <v>1.192</v>
+      </c>
+      <c r="M101">
+        <v>0.08484101999999999</v>
+      </c>
+      <c r="N101">
+        <v>1.10715898</v>
+      </c>
+      <c r="O101">
+        <v>0.1992886164</v>
+      </c>
+      <c r="P101">
+        <v>0.9078703636000001</v>
+      </c>
+      <c r="Q101">
+        <v>1.5358703636</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.019060978657737</v>
+      </c>
+      <c r="T101">
+        <v>70.16249886676654</v>
+      </c>
+      <c r="U101">
+        <v>0.0162</v>
+      </c>
+      <c r="V101">
+        <v>0.18</v>
+      </c>
+      <c r="W101">
+        <v>0.013284</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>14.04980751056506</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
